--- a/public/archivos/plantilla/Control Procesos Estatales Plantilla.xlsx
+++ b/public/archivos/plantilla/Control Procesos Estatales Plantilla.xlsx
@@ -90,12 +90,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -142,7 +148,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,11 +165,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,6 +203,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -203,8 +273,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -222,7 +292,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -254,7376 +324,7376 @@
       <c r="AMJ1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="7"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="7"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="7"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="7"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="7"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="7"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="7"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="7"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="7"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="7"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="7"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="7"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="7"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="7"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="7"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="7"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="7"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="7"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="7"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="7"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="7"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="7"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="7"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="7"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="7"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="7"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="7"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="7"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="7"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="7"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="7"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="7"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="7"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="7"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="7"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="7"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="7"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="7"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="7"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="7"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="7"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="7"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="7"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="7"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="7"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="7"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="7"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="7"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="7"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="7"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="7"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="7"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="7"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="7"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="7"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="7"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="7"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="7"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="7"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="7"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="7"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="7"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="7"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="7"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="7"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="7"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="7"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="7"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="str">
         <f aca="false">IF(B102="","",A101+1)</f>
         <v/>
       </c>
-      <c r="I102" s="9"/>
+      <c r="I102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="str">
         <f aca="false">IF(B103="","",A102+1)</f>
         <v/>
       </c>
-      <c r="I103" s="9"/>
+      <c r="I103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="str">
         <f aca="false">IF(B104="","",A103+1)</f>
         <v/>
       </c>
-      <c r="I104" s="9"/>
+      <c r="I104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="str">
         <f aca="false">IF(B105="","",A104+1)</f>
         <v/>
       </c>
-      <c r="I105" s="9"/>
+      <c r="I105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="str">
         <f aca="false">IF(B106="","",A105+1)</f>
         <v/>
       </c>
-      <c r="I106" s="9"/>
+      <c r="I106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="str">
         <f aca="false">IF(B107="","",A106+1)</f>
         <v/>
       </c>
-      <c r="I107" s="9"/>
+      <c r="I107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="str">
         <f aca="false">IF(B108="","",A107+1)</f>
         <v/>
       </c>
-      <c r="I108" s="9"/>
+      <c r="I108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="str">
         <f aca="false">IF(B109="","",A108+1)</f>
         <v/>
       </c>
-      <c r="I109" s="9"/>
+      <c r="I109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="str">
         <f aca="false">IF(B110="","",A109+1)</f>
         <v/>
       </c>
-      <c r="I110" s="9"/>
+      <c r="I110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="str">
         <f aca="false">IF(B111="","",A110+1)</f>
         <v/>
       </c>
-      <c r="I111" s="9"/>
+      <c r="I111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="str">
         <f aca="false">IF(B112="","",A111+1)</f>
         <v/>
       </c>
-      <c r="I112" s="9"/>
+      <c r="I112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="str">
         <f aca="false">IF(B113="","",A112+1)</f>
         <v/>
       </c>
-      <c r="I113" s="9"/>
+      <c r="I113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="str">
         <f aca="false">IF(B114="","",A113+1)</f>
         <v/>
       </c>
-      <c r="I114" s="9"/>
+      <c r="I114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="str">
         <f aca="false">IF(B115="","",A114+1)</f>
         <v/>
       </c>
-      <c r="I115" s="9"/>
+      <c r="I115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="str">
         <f aca="false">IF(B116="","",A115+1)</f>
         <v/>
       </c>
-      <c r="I116" s="9"/>
+      <c r="I116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="str">
         <f aca="false">IF(B117="","",A116+1)</f>
         <v/>
       </c>
-      <c r="I117" s="9"/>
+      <c r="I117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="str">
         <f aca="false">IF(B118="","",A117+1)</f>
         <v/>
       </c>
-      <c r="I118" s="9"/>
+      <c r="I118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="str">
         <f aca="false">IF(B119="","",A118+1)</f>
         <v/>
       </c>
-      <c r="I119" s="9"/>
+      <c r="I119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="str">
         <f aca="false">IF(B120="","",A119+1)</f>
         <v/>
       </c>
-      <c r="I120" s="9"/>
+      <c r="I120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="str">
         <f aca="false">IF(B121="","",A120+1)</f>
         <v/>
       </c>
-      <c r="I121" s="9"/>
+      <c r="I121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="str">
         <f aca="false">IF(B122="","",A121+1)</f>
         <v/>
       </c>
-      <c r="I122" s="9"/>
+      <c r="I122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="str">
         <f aca="false">IF(B123="","",A122+1)</f>
         <v/>
       </c>
-      <c r="I123" s="9"/>
+      <c r="I123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="str">
         <f aca="false">IF(B124="","",A123+1)</f>
         <v/>
       </c>
-      <c r="I124" s="9"/>
+      <c r="I124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="str">
         <f aca="false">IF(B125="","",A124+1)</f>
         <v/>
       </c>
-      <c r="I125" s="9"/>
+      <c r="I125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="str">
         <f aca="false">IF(B126="","",A125+1)</f>
         <v/>
       </c>
-      <c r="I126" s="9"/>
+      <c r="I126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="str">
         <f aca="false">IF(B127="","",A126+1)</f>
         <v/>
       </c>
-      <c r="I127" s="9"/>
+      <c r="I127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="str">
         <f aca="false">IF(B128="","",A127+1)</f>
         <v/>
       </c>
-      <c r="I128" s="9"/>
+      <c r="I128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="str">
         <f aca="false">IF(B129="","",A128+1)</f>
         <v/>
       </c>
-      <c r="I129" s="9"/>
+      <c r="I129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="str">
         <f aca="false">IF(B130="","",A129+1)</f>
         <v/>
       </c>
-      <c r="I130" s="9"/>
+      <c r="I130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="str">
         <f aca="false">IF(B131="","",A130+1)</f>
         <v/>
       </c>
-      <c r="I131" s="9"/>
+      <c r="I131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="str">
         <f aca="false">IF(B132="","",A131+1)</f>
         <v/>
       </c>
-      <c r="I132" s="9"/>
+      <c r="I132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="str">
         <f aca="false">IF(B133="","",A132+1)</f>
         <v/>
       </c>
-      <c r="I133" s="9"/>
+      <c r="I133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="str">
         <f aca="false">IF(B134="","",A133+1)</f>
         <v/>
       </c>
-      <c r="I134" s="9"/>
+      <c r="I134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="str">
         <f aca="false">IF(B135="","",A134+1)</f>
         <v/>
       </c>
-      <c r="I135" s="9"/>
+      <c r="I135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="str">
         <f aca="false">IF(B136="","",A135+1)</f>
         <v/>
       </c>
-      <c r="I136" s="9"/>
+      <c r="I136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="str">
         <f aca="false">IF(B137="","",A136+1)</f>
         <v/>
       </c>
-      <c r="I137" s="9"/>
+      <c r="I137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="str">
         <f aca="false">IF(B138="","",A137+1)</f>
         <v/>
       </c>
-      <c r="I138" s="9"/>
+      <c r="I138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="str">
         <f aca="false">IF(B139="","",A138+1)</f>
         <v/>
       </c>
-      <c r="I139" s="9"/>
+      <c r="I139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="str">
         <f aca="false">IF(B140="","",A139+1)</f>
         <v/>
       </c>
-      <c r="I140" s="9"/>
+      <c r="I140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="str">
         <f aca="false">IF(B141="","",A140+1)</f>
         <v/>
       </c>
-      <c r="I141" s="9"/>
+      <c r="I141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="str">
         <f aca="false">IF(B142="","",A141+1)</f>
         <v/>
       </c>
-      <c r="I142" s="9"/>
+      <c r="I142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="str">
         <f aca="false">IF(B143="","",A142+1)</f>
         <v/>
       </c>
-      <c r="I143" s="9"/>
+      <c r="I143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="str">
         <f aca="false">IF(B144="","",A143+1)</f>
         <v/>
       </c>
-      <c r="I144" s="9"/>
+      <c r="I144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="str">
         <f aca="false">IF(B145="","",A144+1)</f>
         <v/>
       </c>
-      <c r="I145" s="9"/>
+      <c r="I145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="str">
         <f aca="false">IF(B146="","",A145+1)</f>
         <v/>
       </c>
-      <c r="I146" s="9"/>
+      <c r="I146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="str">
         <f aca="false">IF(B147="","",A146+1)</f>
         <v/>
       </c>
-      <c r="I147" s="9"/>
+      <c r="I147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="str">
         <f aca="false">IF(B148="","",A147+1)</f>
         <v/>
       </c>
-      <c r="I148" s="9"/>
+      <c r="I148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="str">
         <f aca="false">IF(B149="","",A148+1)</f>
         <v/>
       </c>
-      <c r="I149" s="9"/>
+      <c r="I149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="str">
         <f aca="false">IF(B150="","",A149+1)</f>
         <v/>
       </c>
-      <c r="I150" s="9"/>
+      <c r="I150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="str">
         <f aca="false">IF(B151="","",A150+1)</f>
         <v/>
       </c>
-      <c r="I151" s="9"/>
+      <c r="I151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="str">
         <f aca="false">IF(B152="","",A151+1)</f>
         <v/>
       </c>
-      <c r="I152" s="9"/>
+      <c r="I152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="str">
         <f aca="false">IF(B153="","",A152+1)</f>
         <v/>
       </c>
-      <c r="I153" s="9"/>
+      <c r="I153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="str">
         <f aca="false">IF(B154="","",A153+1)</f>
         <v/>
       </c>
-      <c r="I154" s="9"/>
+      <c r="I154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="str">
         <f aca="false">IF(B155="","",A154+1)</f>
         <v/>
       </c>
-      <c r="I155" s="9"/>
+      <c r="I155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="str">
         <f aca="false">IF(B156="","",A155+1)</f>
         <v/>
       </c>
-      <c r="I156" s="9"/>
+      <c r="I156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="str">
         <f aca="false">IF(B157="","",A156+1)</f>
         <v/>
       </c>
-      <c r="I157" s="9"/>
+      <c r="I157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="str">
         <f aca="false">IF(B158="","",A157+1)</f>
         <v/>
       </c>
-      <c r="I158" s="9"/>
+      <c r="I158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="str">
         <f aca="false">IF(B159="","",A158+1)</f>
         <v/>
       </c>
-      <c r="I159" s="9"/>
+      <c r="I159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="str">
         <f aca="false">IF(B160="","",A159+1)</f>
         <v/>
       </c>
-      <c r="I160" s="9"/>
+      <c r="I160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="str">
         <f aca="false">IF(B161="","",A160+1)</f>
         <v/>
       </c>
-      <c r="I161" s="9"/>
+      <c r="I161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="str">
         <f aca="false">IF(B162="","",A161+1)</f>
         <v/>
       </c>
-      <c r="I162" s="9"/>
+      <c r="I162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="str">
         <f aca="false">IF(B163="","",A162+1)</f>
         <v/>
       </c>
-      <c r="I163" s="9"/>
+      <c r="I163" s="10"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="str">
         <f aca="false">IF(B164="","",A163+1)</f>
         <v/>
       </c>
-      <c r="I164" s="9"/>
+      <c r="I164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="str">
         <f aca="false">IF(B165="","",A164+1)</f>
         <v/>
       </c>
-      <c r="I165" s="9"/>
+      <c r="I165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="str">
         <f aca="false">IF(B166="","",A165+1)</f>
         <v/>
       </c>
-      <c r="I166" s="9"/>
+      <c r="I166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="str">
         <f aca="false">IF(B167="","",A166+1)</f>
         <v/>
       </c>
-      <c r="I167" s="9"/>
+      <c r="I167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="str">
         <f aca="false">IF(B168="","",A167+1)</f>
         <v/>
       </c>
-      <c r="I168" s="9"/>
+      <c r="I168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="str">
         <f aca="false">IF(B169="","",A168+1)</f>
         <v/>
       </c>
-      <c r="I169" s="9"/>
+      <c r="I169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="str">
         <f aca="false">IF(B170="","",A169+1)</f>
         <v/>
       </c>
-      <c r="I170" s="9"/>
+      <c r="I170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="str">
         <f aca="false">IF(B171="","",A170+1)</f>
         <v/>
       </c>
-      <c r="I171" s="9"/>
+      <c r="I171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="str">
         <f aca="false">IF(B172="","",A171+1)</f>
         <v/>
       </c>
-      <c r="I172" s="9"/>
+      <c r="I172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="str">
         <f aca="false">IF(B173="","",A172+1)</f>
         <v/>
       </c>
-      <c r="I173" s="9"/>
+      <c r="I173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="str">
         <f aca="false">IF(B174="","",A173+1)</f>
         <v/>
       </c>
-      <c r="I174" s="9"/>
+      <c r="I174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="str">
         <f aca="false">IF(B175="","",A174+1)</f>
         <v/>
       </c>
-      <c r="I175" s="9"/>
+      <c r="I175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="str">
         <f aca="false">IF(B176="","",A175+1)</f>
         <v/>
       </c>
-      <c r="I176" s="9"/>
+      <c r="I176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="str">
         <f aca="false">IF(B177="","",A176+1)</f>
         <v/>
       </c>
-      <c r="I177" s="9"/>
+      <c r="I177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="str">
         <f aca="false">IF(B178="","",A177+1)</f>
         <v/>
       </c>
-      <c r="I178" s="9"/>
+      <c r="I178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="str">
         <f aca="false">IF(B179="","",A178+1)</f>
         <v/>
       </c>
-      <c r="I179" s="9"/>
+      <c r="I179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="str">
         <f aca="false">IF(B180="","",A179+1)</f>
         <v/>
       </c>
-      <c r="I180" s="9"/>
+      <c r="I180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="str">
         <f aca="false">IF(B181="","",A180+1)</f>
         <v/>
       </c>
-      <c r="I181" s="9"/>
+      <c r="I181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="str">
         <f aca="false">IF(B182="","",A181+1)</f>
         <v/>
       </c>
-      <c r="I182" s="9"/>
+      <c r="I182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="str">
         <f aca="false">IF(B183="","",A182+1)</f>
         <v/>
       </c>
-      <c r="I183" s="9"/>
+      <c r="I183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="str">
         <f aca="false">IF(B184="","",A183+1)</f>
         <v/>
       </c>
-      <c r="I184" s="9"/>
+      <c r="I184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="str">
         <f aca="false">IF(B185="","",A184+1)</f>
         <v/>
       </c>
-      <c r="I185" s="9"/>
+      <c r="I185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="str">
         <f aca="false">IF(B186="","",A185+1)</f>
         <v/>
       </c>
-      <c r="I186" s="9"/>
+      <c r="I186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="str">
         <f aca="false">IF(B187="","",A186+1)</f>
         <v/>
       </c>
-      <c r="I187" s="9"/>
+      <c r="I187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="str">
         <f aca="false">IF(B188="","",A187+1)</f>
         <v/>
       </c>
-      <c r="I188" s="9"/>
+      <c r="I188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="str">
         <f aca="false">IF(B189="","",A188+1)</f>
         <v/>
       </c>
-      <c r="I189" s="9"/>
+      <c r="I189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="str">
         <f aca="false">IF(B190="","",A189+1)</f>
         <v/>
       </c>
-      <c r="I190" s="9"/>
+      <c r="I190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="str">
         <f aca="false">IF(B191="","",A190+1)</f>
         <v/>
       </c>
-      <c r="I191" s="9"/>
+      <c r="I191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="str">
         <f aca="false">IF(B192="","",A191+1)</f>
         <v/>
       </c>
-      <c r="I192" s="9"/>
+      <c r="I192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="str">
         <f aca="false">IF(B193="","",A192+1)</f>
         <v/>
       </c>
-      <c r="I193" s="9"/>
+      <c r="I193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="str">
         <f aca="false">IF(B194="","",A193+1)</f>
         <v/>
       </c>
-      <c r="I194" s="9"/>
+      <c r="I194" s="10"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="str">
         <f aca="false">IF(B195="","",A194+1)</f>
         <v/>
       </c>
-      <c r="I195" s="9"/>
+      <c r="I195" s="10"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="str">
         <f aca="false">IF(B196="","",A195+1)</f>
         <v/>
       </c>
-      <c r="I196" s="9"/>
+      <c r="I196" s="10"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="str">
         <f aca="false">IF(B197="","",A196+1)</f>
         <v/>
       </c>
-      <c r="I197" s="9"/>
+      <c r="I197" s="10"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="str">
         <f aca="false">IF(B198="","",A197+1)</f>
         <v/>
       </c>
-      <c r="I198" s="9"/>
+      <c r="I198" s="10"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="str">
         <f aca="false">IF(B199="","",A198+1)</f>
         <v/>
       </c>
-      <c r="I199" s="9"/>
+      <c r="I199" s="10"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="str">
         <f aca="false">IF(B200="","",A199+1)</f>
         <v/>
       </c>
-      <c r="I200" s="9"/>
+      <c r="I200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="str">
         <f aca="false">IF(B201="","",A200+1)</f>
         <v/>
       </c>
-      <c r="I201" s="9"/>
+      <c r="I201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="str">
         <f aca="false">IF(B202="","",A201+1)</f>
         <v/>
       </c>
-      <c r="I202" s="9"/>
+      <c r="I202" s="10"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="str">
         <f aca="false">IF(B203="","",A202+1)</f>
         <v/>
       </c>
-      <c r="I203" s="9"/>
+      <c r="I203" s="10"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="str">
         <f aca="false">IF(B204="","",A203+1)</f>
         <v/>
       </c>
-      <c r="I204" s="9"/>
+      <c r="I204" s="10"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="str">
         <f aca="false">IF(B205="","",A204+1)</f>
         <v/>
       </c>
-      <c r="I205" s="9"/>
+      <c r="I205" s="10"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="str">
         <f aca="false">IF(B206="","",A205+1)</f>
         <v/>
       </c>
-      <c r="I206" s="9"/>
+      <c r="I206" s="10"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="str">
         <f aca="false">IF(B207="","",A206+1)</f>
         <v/>
       </c>
-      <c r="I207" s="9"/>
+      <c r="I207" s="10"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="str">
         <f aca="false">IF(B208="","",A207+1)</f>
         <v/>
       </c>
-      <c r="I208" s="9"/>
+      <c r="I208" s="10"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="str">
         <f aca="false">IF(B209="","",A208+1)</f>
         <v/>
       </c>
-      <c r="I209" s="9"/>
+      <c r="I209" s="10"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="str">
         <f aca="false">IF(B210="","",A209+1)</f>
         <v/>
       </c>
-      <c r="I210" s="9"/>
+      <c r="I210" s="10"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="str">
         <f aca="false">IF(B211="","",A210+1)</f>
         <v/>
       </c>
-      <c r="I211" s="9"/>
+      <c r="I211" s="10"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="str">
         <f aca="false">IF(B212="","",A211+1)</f>
         <v/>
       </c>
-      <c r="I212" s="9"/>
+      <c r="I212" s="10"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="str">
         <f aca="false">IF(B213="","",A212+1)</f>
         <v/>
       </c>
-      <c r="I213" s="9"/>
+      <c r="I213" s="10"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="str">
         <f aca="false">IF(B214="","",A213+1)</f>
         <v/>
       </c>
-      <c r="I214" s="9"/>
+      <c r="I214" s="10"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="str">
         <f aca="false">IF(B215="","",A214+1)</f>
         <v/>
       </c>
-      <c r="I215" s="9"/>
+      <c r="I215" s="10"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="str">
         <f aca="false">IF(B216="","",A215+1)</f>
         <v/>
       </c>
-      <c r="I216" s="9"/>
+      <c r="I216" s="10"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="str">
         <f aca="false">IF(B217="","",A216+1)</f>
         <v/>
       </c>
-      <c r="I217" s="9"/>
+      <c r="I217" s="10"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="str">
         <f aca="false">IF(B218="","",A217+1)</f>
         <v/>
       </c>
-      <c r="I218" s="9"/>
+      <c r="I218" s="10"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="str">
         <f aca="false">IF(B219="","",A218+1)</f>
         <v/>
       </c>
-      <c r="I219" s="9"/>
+      <c r="I219" s="10"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="str">
         <f aca="false">IF(B220="","",A219+1)</f>
         <v/>
       </c>
-      <c r="I220" s="9"/>
+      <c r="I220" s="10"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="str">
         <f aca="false">IF(B221="","",A220+1)</f>
         <v/>
       </c>
-      <c r="I221" s="9"/>
+      <c r="I221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="str">
         <f aca="false">IF(B222="","",A221+1)</f>
         <v/>
       </c>
-      <c r="I222" s="9"/>
+      <c r="I222" s="10"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="str">
         <f aca="false">IF(B223="","",A222+1)</f>
         <v/>
       </c>
-      <c r="I223" s="9"/>
+      <c r="I223" s="10"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="str">
         <f aca="false">IF(B224="","",A223+1)</f>
         <v/>
       </c>
-      <c r="I224" s="9"/>
+      <c r="I224" s="10"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="str">
         <f aca="false">IF(B225="","",A224+1)</f>
         <v/>
       </c>
-      <c r="I225" s="9"/>
+      <c r="I225" s="10"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="str">
         <f aca="false">IF(B226="","",A225+1)</f>
         <v/>
       </c>
-      <c r="I226" s="9"/>
+      <c r="I226" s="10"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="str">
         <f aca="false">IF(B227="","",A226+1)</f>
         <v/>
       </c>
-      <c r="I227" s="9"/>
+      <c r="I227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="str">
         <f aca="false">IF(B228="","",A227+1)</f>
         <v/>
       </c>
-      <c r="I228" s="9"/>
+      <c r="I228" s="10"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="str">
         <f aca="false">IF(B229="","",A228+1)</f>
         <v/>
       </c>
-      <c r="I229" s="9"/>
+      <c r="I229" s="10"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="str">
         <f aca="false">IF(B230="","",A229+1)</f>
         <v/>
       </c>
-      <c r="I230" s="9"/>
+      <c r="I230" s="10"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="str">
         <f aca="false">IF(B231="","",A230+1)</f>
         <v/>
       </c>
-      <c r="I231" s="9"/>
+      <c r="I231" s="10"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="str">
         <f aca="false">IF(B232="","",A231+1)</f>
         <v/>
       </c>
-      <c r="I232" s="9"/>
+      <c r="I232" s="10"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="str">
         <f aca="false">IF(B233="","",A232+1)</f>
         <v/>
       </c>
-      <c r="I233" s="9"/>
+      <c r="I233" s="10"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="str">
         <f aca="false">IF(B234="","",A233+1)</f>
         <v/>
       </c>
-      <c r="I234" s="9"/>
+      <c r="I234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="str">
         <f aca="false">IF(B235="","",A234+1)</f>
         <v/>
       </c>
-      <c r="I235" s="9"/>
+      <c r="I235" s="10"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="str">
         <f aca="false">IF(B236="","",A235+1)</f>
         <v/>
       </c>
-      <c r="I236" s="9"/>
+      <c r="I236" s="10"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="str">
         <f aca="false">IF(B237="","",A236+1)</f>
         <v/>
       </c>
-      <c r="I237" s="9"/>
+      <c r="I237" s="10"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="str">
         <f aca="false">IF(B238="","",A237+1)</f>
         <v/>
       </c>
-      <c r="I238" s="9"/>
+      <c r="I238" s="10"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="str">
         <f aca="false">IF(B239="","",A238+1)</f>
         <v/>
       </c>
-      <c r="I239" s="9"/>
+      <c r="I239" s="10"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="str">
         <f aca="false">IF(B240="","",A239+1)</f>
         <v/>
       </c>
-      <c r="I240" s="9"/>
+      <c r="I240" s="10"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="str">
         <f aca="false">IF(B241="","",A240+1)</f>
         <v/>
       </c>
-      <c r="I241" s="9"/>
+      <c r="I241" s="10"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="str">
         <f aca="false">IF(B242="","",A241+1)</f>
         <v/>
       </c>
-      <c r="I242" s="9"/>
+      <c r="I242" s="10"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="str">
         <f aca="false">IF(B243="","",A242+1)</f>
         <v/>
       </c>
-      <c r="I243" s="9"/>
+      <c r="I243" s="10"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="str">
         <f aca="false">IF(B244="","",A243+1)</f>
         <v/>
       </c>
-      <c r="I244" s="9"/>
+      <c r="I244" s="10"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="str">
         <f aca="false">IF(B245="","",A244+1)</f>
         <v/>
       </c>
-      <c r="I245" s="9"/>
+      <c r="I245" s="10"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="str">
         <f aca="false">IF(B246="","",A245+1)</f>
         <v/>
       </c>
-      <c r="I246" s="9"/>
+      <c r="I246" s="10"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="str">
         <f aca="false">IF(B247="","",A246+1)</f>
         <v/>
       </c>
-      <c r="I247" s="9"/>
+      <c r="I247" s="10"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="str">
         <f aca="false">IF(B248="","",A247+1)</f>
         <v/>
       </c>
-      <c r="I248" s="9"/>
+      <c r="I248" s="10"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="str">
         <f aca="false">IF(B249="","",A248+1)</f>
         <v/>
       </c>
-      <c r="I249" s="9"/>
+      <c r="I249" s="10"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="str">
         <f aca="false">IF(B250="","",A249+1)</f>
         <v/>
       </c>
-      <c r="I250" s="9"/>
+      <c r="I250" s="10"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="str">
         <f aca="false">IF(B251="","",A250+1)</f>
         <v/>
       </c>
-      <c r="I251" s="9"/>
+      <c r="I251" s="10"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="str">
         <f aca="false">IF(B252="","",A251+1)</f>
         <v/>
       </c>
-      <c r="I252" s="9"/>
+      <c r="I252" s="10"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="str">
         <f aca="false">IF(B253="","",A252+1)</f>
         <v/>
       </c>
-      <c r="I253" s="9"/>
+      <c r="I253" s="10"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="str">
         <f aca="false">IF(B254="","",A253+1)</f>
         <v/>
       </c>
-      <c r="I254" s="9"/>
+      <c r="I254" s="10"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="str">
         <f aca="false">IF(B255="","",A254+1)</f>
         <v/>
       </c>
-      <c r="I255" s="9"/>
+      <c r="I255" s="10"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="str">
         <f aca="false">IF(B256="","",A255+1)</f>
         <v/>
       </c>
-      <c r="I256" s="9"/>
+      <c r="I256" s="10"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="str">
         <f aca="false">IF(B257="","",A256+1)</f>
         <v/>
       </c>
-      <c r="I257" s="9"/>
+      <c r="I257" s="10"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="str">
         <f aca="false">IF(B258="","",A257+1)</f>
         <v/>
       </c>
-      <c r="I258" s="9"/>
+      <c r="I258" s="10"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="str">
         <f aca="false">IF(B259="","",A258+1)</f>
         <v/>
       </c>
-      <c r="I259" s="9"/>
+      <c r="I259" s="10"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="str">
         <f aca="false">IF(B260="","",A259+1)</f>
         <v/>
       </c>
-      <c r="I260" s="9"/>
+      <c r="I260" s="10"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="str">
         <f aca="false">IF(B261="","",A260+1)</f>
         <v/>
       </c>
-      <c r="I261" s="9"/>
+      <c r="I261" s="10"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="str">
         <f aca="false">IF(B262="","",A261+1)</f>
         <v/>
       </c>
-      <c r="I262" s="9"/>
+      <c r="I262" s="10"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="str">
         <f aca="false">IF(B263="","",A262+1)</f>
         <v/>
       </c>
-      <c r="I263" s="9"/>
+      <c r="I263" s="10"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="str">
         <f aca="false">IF(B264="","",A263+1)</f>
         <v/>
       </c>
-      <c r="I264" s="9"/>
+      <c r="I264" s="10"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="str">
         <f aca="false">IF(B265="","",A264+1)</f>
         <v/>
       </c>
-      <c r="I265" s="9"/>
+      <c r="I265" s="10"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="str">
         <f aca="false">IF(B266="","",A265+1)</f>
         <v/>
       </c>
-      <c r="I266" s="9"/>
+      <c r="I266" s="10"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="str">
         <f aca="false">IF(B267="","",A266+1)</f>
         <v/>
       </c>
-      <c r="I267" s="9"/>
+      <c r="I267" s="10"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="str">
         <f aca="false">IF(B268="","",A267+1)</f>
         <v/>
       </c>
-      <c r="I268" s="9"/>
+      <c r="I268" s="10"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="str">
         <f aca="false">IF(B269="","",A268+1)</f>
         <v/>
       </c>
-      <c r="I269" s="9"/>
+      <c r="I269" s="10"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="str">
         <f aca="false">IF(B270="","",A269+1)</f>
         <v/>
       </c>
-      <c r="I270" s="9"/>
+      <c r="I270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="str">
         <f aca="false">IF(B271="","",A270+1)</f>
         <v/>
       </c>
-      <c r="I271" s="9"/>
+      <c r="I271" s="10"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="str">
         <f aca="false">IF(B272="","",A271+1)</f>
         <v/>
       </c>
-      <c r="I272" s="9"/>
+      <c r="I272" s="10"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="str">
         <f aca="false">IF(B273="","",A272+1)</f>
         <v/>
       </c>
-      <c r="I273" s="9"/>
+      <c r="I273" s="10"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="str">
         <f aca="false">IF(B274="","",A273+1)</f>
         <v/>
       </c>
-      <c r="I274" s="9"/>
+      <c r="I274" s="10"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="str">
         <f aca="false">IF(B275="","",A274+1)</f>
         <v/>
       </c>
-      <c r="I275" s="9"/>
+      <c r="I275" s="10"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="str">
         <f aca="false">IF(B276="","",A275+1)</f>
         <v/>
       </c>
-      <c r="I276" s="9"/>
+      <c r="I276" s="10"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="str">
         <f aca="false">IF(B277="","",A276+1)</f>
         <v/>
       </c>
-      <c r="I277" s="9"/>
+      <c r="I277" s="10"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="str">
         <f aca="false">IF(B278="","",A277+1)</f>
         <v/>
       </c>
-      <c r="I278" s="9"/>
+      <c r="I278" s="10"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="str">
         <f aca="false">IF(B279="","",A278+1)</f>
         <v/>
       </c>
-      <c r="I279" s="9"/>
+      <c r="I279" s="10"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="str">
         <f aca="false">IF(B280="","",A279+1)</f>
         <v/>
       </c>
-      <c r="I280" s="9"/>
+      <c r="I280" s="10"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="str">
         <f aca="false">IF(B281="","",A280+1)</f>
         <v/>
       </c>
-      <c r="I281" s="9"/>
+      <c r="I281" s="10"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="str">
         <f aca="false">IF(B282="","",A281+1)</f>
         <v/>
       </c>
-      <c r="I282" s="9"/>
+      <c r="I282" s="10"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="str">
         <f aca="false">IF(B283="","",A282+1)</f>
         <v/>
       </c>
-      <c r="I283" s="9"/>
+      <c r="I283" s="10"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="str">
         <f aca="false">IF(B284="","",A283+1)</f>
         <v/>
       </c>
-      <c r="I284" s="9"/>
+      <c r="I284" s="10"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="str">
         <f aca="false">IF(B285="","",A284+1)</f>
         <v/>
       </c>
-      <c r="I285" s="9"/>
+      <c r="I285" s="10"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="str">
         <f aca="false">IF(B286="","",A285+1)</f>
         <v/>
       </c>
-      <c r="I286" s="9"/>
+      <c r="I286" s="10"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="str">
         <f aca="false">IF(B287="","",A286+1)</f>
         <v/>
       </c>
-      <c r="I287" s="9"/>
+      <c r="I287" s="10"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="str">
         <f aca="false">IF(B288="","",A287+1)</f>
         <v/>
       </c>
-      <c r="I288" s="9"/>
+      <c r="I288" s="10"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="str">
         <f aca="false">IF(B289="","",A288+1)</f>
         <v/>
       </c>
-      <c r="I289" s="9"/>
+      <c r="I289" s="10"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="str">
         <f aca="false">IF(B290="","",A289+1)</f>
         <v/>
       </c>
-      <c r="I290" s="9"/>
+      <c r="I290" s="10"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="str">
         <f aca="false">IF(B291="","",A290+1)</f>
         <v/>
       </c>
-      <c r="I291" s="9"/>
+      <c r="I291" s="10"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="str">
         <f aca="false">IF(B292="","",A291+1)</f>
         <v/>
       </c>
-      <c r="I292" s="9"/>
+      <c r="I292" s="10"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="str">
         <f aca="false">IF(B293="","",A292+1)</f>
         <v/>
       </c>
-      <c r="I293" s="9"/>
+      <c r="I293" s="10"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="str">
         <f aca="false">IF(B294="","",A293+1)</f>
         <v/>
       </c>
-      <c r="I294" s="9"/>
+      <c r="I294" s="10"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="str">
         <f aca="false">IF(B295="","",A294+1)</f>
         <v/>
       </c>
-      <c r="I295" s="9"/>
+      <c r="I295" s="10"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="str">
         <f aca="false">IF(B296="","",A295+1)</f>
         <v/>
       </c>
-      <c r="I296" s="9"/>
+      <c r="I296" s="10"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="str">
         <f aca="false">IF(B297="","",A296+1)</f>
         <v/>
       </c>
-      <c r="I297" s="9"/>
+      <c r="I297" s="10"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="str">
         <f aca="false">IF(B298="","",A297+1)</f>
         <v/>
       </c>
-      <c r="I298" s="9"/>
+      <c r="I298" s="10"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="str">
         <f aca="false">IF(B299="","",A298+1)</f>
         <v/>
       </c>
-      <c r="I299" s="9"/>
+      <c r="I299" s="10"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="str">
         <f aca="false">IF(B300="","",A299+1)</f>
         <v/>
       </c>
-      <c r="I300" s="9"/>
+      <c r="I300" s="10"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="str">
         <f aca="false">IF(B301="","",A300+1)</f>
         <v/>
       </c>
-      <c r="I301" s="9"/>
+      <c r="I301" s="10"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="str">
         <f aca="false">IF(B302="","",A301+1)</f>
         <v/>
       </c>
-      <c r="I302" s="9"/>
+      <c r="I302" s="10"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="str">
         <f aca="false">IF(B303="","",A302+1)</f>
         <v/>
       </c>
-      <c r="I303" s="9"/>
+      <c r="I303" s="10"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="str">
         <f aca="false">IF(B304="","",A303+1)</f>
         <v/>
       </c>
-      <c r="I304" s="9"/>
+      <c r="I304" s="10"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="str">
         <f aca="false">IF(B305="","",A304+1)</f>
         <v/>
       </c>
-      <c r="I305" s="9"/>
+      <c r="I305" s="10"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="str">
         <f aca="false">IF(B306="","",A305+1)</f>
         <v/>
       </c>
-      <c r="I306" s="9"/>
+      <c r="I306" s="10"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="str">
         <f aca="false">IF(B307="","",A306+1)</f>
         <v/>
       </c>
-      <c r="I307" s="9"/>
+      <c r="I307" s="10"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="str">
         <f aca="false">IF(B308="","",A307+1)</f>
         <v/>
       </c>
-      <c r="I308" s="9"/>
+      <c r="I308" s="10"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="str">
         <f aca="false">IF(B309="","",A308+1)</f>
         <v/>
       </c>
-      <c r="I309" s="9"/>
+      <c r="I309" s="10"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="str">
         <f aca="false">IF(B310="","",A309+1)</f>
         <v/>
       </c>
-      <c r="I310" s="9"/>
+      <c r="I310" s="10"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="str">
         <f aca="false">IF(B311="","",A310+1)</f>
         <v/>
       </c>
-      <c r="I311" s="9"/>
+      <c r="I311" s="10"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="str">
         <f aca="false">IF(B312="","",A311+1)</f>
         <v/>
       </c>
-      <c r="I312" s="9"/>
+      <c r="I312" s="10"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="str">
         <f aca="false">IF(B313="","",A312+1)</f>
         <v/>
       </c>
-      <c r="I313" s="9"/>
+      <c r="I313" s="10"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="str">
         <f aca="false">IF(B314="","",A313+1)</f>
         <v/>
       </c>
-      <c r="I314" s="9"/>
+      <c r="I314" s="10"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="str">
         <f aca="false">IF(B315="","",A314+1)</f>
         <v/>
       </c>
-      <c r="I315" s="9"/>
+      <c r="I315" s="10"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="str">
         <f aca="false">IF(B316="","",A315+1)</f>
         <v/>
       </c>
-      <c r="I316" s="9"/>
+      <c r="I316" s="10"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="str">
         <f aca="false">IF(B317="","",A316+1)</f>
         <v/>
       </c>
-      <c r="I317" s="9"/>
+      <c r="I317" s="10"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="str">
         <f aca="false">IF(B318="","",A317+1)</f>
         <v/>
       </c>
-      <c r="I318" s="9"/>
+      <c r="I318" s="10"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="str">
         <f aca="false">IF(B319="","",A318+1)</f>
         <v/>
       </c>
-      <c r="I319" s="9"/>
+      <c r="I319" s="10"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="str">
         <f aca="false">IF(B320="","",A319+1)</f>
         <v/>
       </c>
-      <c r="I320" s="9"/>
+      <c r="I320" s="10"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="str">
         <f aca="false">IF(B321="","",A320+1)</f>
         <v/>
       </c>
-      <c r="I321" s="9"/>
+      <c r="I321" s="10"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="str">
         <f aca="false">IF(B322="","",A321+1)</f>
         <v/>
       </c>
-      <c r="I322" s="9"/>
+      <c r="I322" s="10"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="str">
         <f aca="false">IF(B323="","",A322+1)</f>
         <v/>
       </c>
-      <c r="I323" s="9"/>
+      <c r="I323" s="10"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="str">
         <f aca="false">IF(B324="","",A323+1)</f>
         <v/>
       </c>
-      <c r="I324" s="9"/>
+      <c r="I324" s="10"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="str">
         <f aca="false">IF(B325="","",A324+1)</f>
         <v/>
       </c>
-      <c r="I325" s="9"/>
+      <c r="I325" s="10"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="str">
         <f aca="false">IF(B326="","",A325+1)</f>
         <v/>
       </c>
-      <c r="I326" s="9"/>
+      <c r="I326" s="10"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="str">
         <f aca="false">IF(B327="","",A326+1)</f>
         <v/>
       </c>
-      <c r="I327" s="9"/>
+      <c r="I327" s="10"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="str">
         <f aca="false">IF(B328="","",A327+1)</f>
         <v/>
       </c>
-      <c r="I328" s="9"/>
+      <c r="I328" s="10"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="str">
         <f aca="false">IF(B329="","",A328+1)</f>
         <v/>
       </c>
-      <c r="I329" s="9"/>
+      <c r="I329" s="10"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="str">
         <f aca="false">IF(B330="","",A329+1)</f>
         <v/>
       </c>
-      <c r="I330" s="9"/>
+      <c r="I330" s="10"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="str">
         <f aca="false">IF(B331="","",A330+1)</f>
         <v/>
       </c>
-      <c r="I331" s="9"/>
+      <c r="I331" s="10"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="str">
         <f aca="false">IF(B332="","",A331+1)</f>
         <v/>
       </c>
-      <c r="I332" s="9"/>
+      <c r="I332" s="10"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="str">
         <f aca="false">IF(B333="","",A332+1)</f>
         <v/>
       </c>
-      <c r="I333" s="9"/>
+      <c r="I333" s="10"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="str">
         <f aca="false">IF(B334="","",A333+1)</f>
         <v/>
       </c>
-      <c r="I334" s="9"/>
+      <c r="I334" s="10"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="str">
         <f aca="false">IF(B335="","",A334+1)</f>
         <v/>
       </c>
-      <c r="I335" s="9"/>
+      <c r="I335" s="10"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="str">
         <f aca="false">IF(B336="","",A335+1)</f>
         <v/>
       </c>
-      <c r="I336" s="9"/>
+      <c r="I336" s="10"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="str">
         <f aca="false">IF(B337="","",A336+1)</f>
         <v/>
       </c>
-      <c r="I337" s="9"/>
+      <c r="I337" s="10"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="str">
         <f aca="false">IF(B338="","",A337+1)</f>
         <v/>
       </c>
-      <c r="I338" s="9"/>
+      <c r="I338" s="10"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="str">
         <f aca="false">IF(B339="","",A338+1)</f>
         <v/>
       </c>
-      <c r="I339" s="9"/>
+      <c r="I339" s="10"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="str">
         <f aca="false">IF(B340="","",A339+1)</f>
         <v/>
       </c>
-      <c r="I340" s="9"/>
+      <c r="I340" s="10"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="str">
         <f aca="false">IF(B341="","",A340+1)</f>
         <v/>
       </c>
-      <c r="I341" s="9"/>
+      <c r="I341" s="10"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="str">
         <f aca="false">IF(B342="","",A341+1)</f>
         <v/>
       </c>
-      <c r="I342" s="9"/>
+      <c r="I342" s="10"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="str">
         <f aca="false">IF(B343="","",A342+1)</f>
         <v/>
       </c>
-      <c r="I343" s="9"/>
+      <c r="I343" s="10"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="str">
         <f aca="false">IF(B344="","",A343+1)</f>
         <v/>
       </c>
-      <c r="I344" s="9"/>
+      <c r="I344" s="10"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="str">
         <f aca="false">IF(B345="","",A344+1)</f>
         <v/>
       </c>
-      <c r="I345" s="9"/>
+      <c r="I345" s="10"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="str">
         <f aca="false">IF(B346="","",A345+1)</f>
         <v/>
       </c>
-      <c r="I346" s="9"/>
+      <c r="I346" s="10"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="str">
         <f aca="false">IF(B347="","",A346+1)</f>
         <v/>
       </c>
-      <c r="I347" s="9"/>
+      <c r="I347" s="10"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="str">
         <f aca="false">IF(B348="","",A347+1)</f>
         <v/>
       </c>
-      <c r="I348" s="9"/>
+      <c r="I348" s="10"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="str">
         <f aca="false">IF(B349="","",A348+1)</f>
         <v/>
       </c>
-      <c r="I349" s="9"/>
+      <c r="I349" s="10"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="str">
         <f aca="false">IF(B350="","",A349+1)</f>
         <v/>
       </c>
-      <c r="I350" s="9"/>
+      <c r="I350" s="10"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="str">
         <f aca="false">IF(B351="","",A350+1)</f>
         <v/>
       </c>
-      <c r="I351" s="9"/>
+      <c r="I351" s="10"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="str">
         <f aca="false">IF(B352="","",A351+1)</f>
         <v/>
       </c>
-      <c r="I352" s="9"/>
+      <c r="I352" s="10"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="str">
         <f aca="false">IF(B353="","",A352+1)</f>
         <v/>
       </c>
-      <c r="I353" s="9"/>
+      <c r="I353" s="10"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="str">
         <f aca="false">IF(B354="","",A353+1)</f>
         <v/>
       </c>
-      <c r="I354" s="9"/>
+      <c r="I354" s="10"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="str">
         <f aca="false">IF(B355="","",A354+1)</f>
         <v/>
       </c>
-      <c r="I355" s="9"/>
+      <c r="I355" s="10"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="str">
         <f aca="false">IF(B356="","",A355+1)</f>
         <v/>
       </c>
-      <c r="I356" s="9"/>
+      <c r="I356" s="10"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="str">
         <f aca="false">IF(B357="","",A356+1)</f>
         <v/>
       </c>
-      <c r="I357" s="9"/>
+      <c r="I357" s="10"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="str">
         <f aca="false">IF(B358="","",A357+1)</f>
         <v/>
       </c>
-      <c r="I358" s="9"/>
+      <c r="I358" s="10"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="str">
         <f aca="false">IF(B359="","",A358+1)</f>
         <v/>
       </c>
-      <c r="I359" s="9"/>
+      <c r="I359" s="10"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="str">
         <f aca="false">IF(B360="","",A359+1)</f>
         <v/>
       </c>
-      <c r="I360" s="9"/>
+      <c r="I360" s="10"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="str">
         <f aca="false">IF(B361="","",A360+1)</f>
         <v/>
       </c>
-      <c r="I361" s="9"/>
+      <c r="I361" s="10"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="str">
         <f aca="false">IF(B362="","",A361+1)</f>
         <v/>
       </c>
-      <c r="I362" s="9"/>
+      <c r="I362" s="10"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="str">
         <f aca="false">IF(B363="","",A362+1)</f>
         <v/>
       </c>
-      <c r="I363" s="9"/>
+      <c r="I363" s="10"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="str">
         <f aca="false">IF(B364="","",A363+1)</f>
         <v/>
       </c>
-      <c r="I364" s="9"/>
+      <c r="I364" s="10"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="str">
         <f aca="false">IF(B365="","",A364+1)</f>
         <v/>
       </c>
-      <c r="I365" s="9"/>
+      <c r="I365" s="10"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="str">
         <f aca="false">IF(B366="","",A365+1)</f>
         <v/>
       </c>
-      <c r="I366" s="9"/>
+      <c r="I366" s="10"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="str">
         <f aca="false">IF(B367="","",A366+1)</f>
         <v/>
       </c>
-      <c r="I367" s="9"/>
+      <c r="I367" s="10"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="str">
         <f aca="false">IF(B368="","",A367+1)</f>
         <v/>
       </c>
-      <c r="I368" s="9"/>
+      <c r="I368" s="10"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="str">
         <f aca="false">IF(B369="","",A368+1)</f>
         <v/>
       </c>
-      <c r="I369" s="9"/>
+      <c r="I369" s="10"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="str">
         <f aca="false">IF(B370="","",A369+1)</f>
         <v/>
       </c>
-      <c r="I370" s="9"/>
+      <c r="I370" s="10"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="str">
         <f aca="false">IF(B371="","",A370+1)</f>
         <v/>
       </c>
-      <c r="I371" s="9"/>
+      <c r="I371" s="10"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="str">
         <f aca="false">IF(B372="","",A371+1)</f>
         <v/>
       </c>
-      <c r="I372" s="9"/>
+      <c r="I372" s="10"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="str">
         <f aca="false">IF(B373="","",A372+1)</f>
         <v/>
       </c>
-      <c r="I373" s="9"/>
+      <c r="I373" s="10"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="str">
         <f aca="false">IF(B374="","",A373+1)</f>
         <v/>
       </c>
-      <c r="I374" s="9"/>
+      <c r="I374" s="10"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="str">
         <f aca="false">IF(B375="","",A374+1)</f>
         <v/>
       </c>
-      <c r="I375" s="9"/>
+      <c r="I375" s="10"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="str">
         <f aca="false">IF(B376="","",A375+1)</f>
         <v/>
       </c>
-      <c r="I376" s="9"/>
+      <c r="I376" s="10"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="str">
         <f aca="false">IF(B377="","",A376+1)</f>
         <v/>
       </c>
-      <c r="I377" s="9"/>
+      <c r="I377" s="10"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="str">
         <f aca="false">IF(B378="","",A377+1)</f>
         <v/>
       </c>
-      <c r="I378" s="9"/>
+      <c r="I378" s="10"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="str">
         <f aca="false">IF(B379="","",A378+1)</f>
         <v/>
       </c>
-      <c r="I379" s="9"/>
+      <c r="I379" s="10"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="str">
         <f aca="false">IF(B380="","",A379+1)</f>
         <v/>
       </c>
-      <c r="I380" s="9"/>
+      <c r="I380" s="10"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="str">
         <f aca="false">IF(B381="","",A380+1)</f>
         <v/>
       </c>
-      <c r="I381" s="9"/>
+      <c r="I381" s="10"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="str">
         <f aca="false">IF(B382="","",A381+1)</f>
         <v/>
       </c>
-      <c r="I382" s="9"/>
+      <c r="I382" s="10"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="str">
         <f aca="false">IF(B383="","",A382+1)</f>
         <v/>
       </c>
-      <c r="I383" s="9"/>
+      <c r="I383" s="10"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="str">
         <f aca="false">IF(B384="","",A383+1)</f>
         <v/>
       </c>
-      <c r="I384" s="9"/>
+      <c r="I384" s="10"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="str">
         <f aca="false">IF(B385="","",A384+1)</f>
         <v/>
       </c>
-      <c r="I385" s="9"/>
+      <c r="I385" s="10"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="str">
         <f aca="false">IF(B386="","",A385+1)</f>
         <v/>
       </c>
-      <c r="I386" s="9"/>
+      <c r="I386" s="10"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="str">
         <f aca="false">IF(B387="","",A386+1)</f>
         <v/>
       </c>
-      <c r="I387" s="9"/>
+      <c r="I387" s="10"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="str">
         <f aca="false">IF(B388="","",A387+1)</f>
         <v/>
       </c>
-      <c r="I388" s="9"/>
+      <c r="I388" s="10"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="str">
         <f aca="false">IF(B389="","",A388+1)</f>
         <v/>
       </c>
-      <c r="I389" s="9"/>
+      <c r="I389" s="10"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="str">
         <f aca="false">IF(B390="","",A389+1)</f>
         <v/>
       </c>
-      <c r="I390" s="9"/>
+      <c r="I390" s="10"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="str">
         <f aca="false">IF(B391="","",A390+1)</f>
         <v/>
       </c>
-      <c r="I391" s="9"/>
+      <c r="I391" s="10"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="str">
         <f aca="false">IF(B392="","",A391+1)</f>
         <v/>
       </c>
-      <c r="I392" s="9"/>
+      <c r="I392" s="10"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="str">
         <f aca="false">IF(B393="","",A392+1)</f>
         <v/>
       </c>
-      <c r="I393" s="9"/>
+      <c r="I393" s="10"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="str">
         <f aca="false">IF(B394="","",A393+1)</f>
         <v/>
       </c>
-      <c r="I394" s="9"/>
+      <c r="I394" s="10"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="str">
         <f aca="false">IF(B395="","",A394+1)</f>
         <v/>
       </c>
-      <c r="I395" s="9"/>
+      <c r="I395" s="10"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="str">
         <f aca="false">IF(B396="","",A395+1)</f>
         <v/>
       </c>
-      <c r="I396" s="9"/>
+      <c r="I396" s="10"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="str">
         <f aca="false">IF(B397="","",A396+1)</f>
         <v/>
       </c>
-      <c r="I397" s="9"/>
+      <c r="I397" s="10"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="str">
         <f aca="false">IF(B398="","",A397+1)</f>
         <v/>
       </c>
-      <c r="I398" s="9"/>
+      <c r="I398" s="10"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="str">
         <f aca="false">IF(B399="","",A398+1)</f>
         <v/>
       </c>
-      <c r="I399" s="9"/>
+      <c r="I399" s="10"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="str">
         <f aca="false">IF(B400="","",A399+1)</f>
         <v/>
       </c>
-      <c r="I400" s="9"/>
+      <c r="I400" s="10"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="str">
         <f aca="false">IF(B401="","",A400+1)</f>
         <v/>
       </c>
-      <c r="I401" s="9"/>
+      <c r="I401" s="10"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="str">
         <f aca="false">IF(B402="","",A401+1)</f>
         <v/>
       </c>
-      <c r="I402" s="9"/>
+      <c r="I402" s="10"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="str">
         <f aca="false">IF(B403="","",A402+1)</f>
         <v/>
       </c>
-      <c r="I403" s="9"/>
+      <c r="I403" s="10"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="str">
         <f aca="false">IF(B404="","",A403+1)</f>
         <v/>
       </c>
-      <c r="I404" s="9"/>
+      <c r="I404" s="10"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="str">
         <f aca="false">IF(B405="","",A404+1)</f>
         <v/>
       </c>
-      <c r="I405" s="9"/>
+      <c r="I405" s="10"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="str">
         <f aca="false">IF(B406="","",A405+1)</f>
         <v/>
       </c>
-      <c r="I406" s="9"/>
+      <c r="I406" s="10"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="str">
         <f aca="false">IF(B407="","",A406+1)</f>
         <v/>
       </c>
-      <c r="I407" s="9"/>
+      <c r="I407" s="10"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="str">
         <f aca="false">IF(B408="","",A407+1)</f>
         <v/>
       </c>
-      <c r="I408" s="9"/>
+      <c r="I408" s="10"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="str">
         <f aca="false">IF(B409="","",A408+1)</f>
         <v/>
       </c>
-      <c r="I409" s="9"/>
+      <c r="I409" s="10"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="str">
         <f aca="false">IF(B410="","",A409+1)</f>
         <v/>
       </c>
-      <c r="I410" s="9"/>
+      <c r="I410" s="10"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="str">
         <f aca="false">IF(B411="","",A410+1)</f>
         <v/>
       </c>
-      <c r="I411" s="9"/>
+      <c r="I411" s="10"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="str">
         <f aca="false">IF(B412="","",A411+1)</f>
         <v/>
       </c>
-      <c r="I412" s="9"/>
+      <c r="I412" s="10"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="str">
         <f aca="false">IF(B413="","",A412+1)</f>
         <v/>
       </c>
-      <c r="I413" s="9"/>
+      <c r="I413" s="10"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="str">
         <f aca="false">IF(B414="","",A413+1)</f>
         <v/>
       </c>
-      <c r="I414" s="9"/>
+      <c r="I414" s="10"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="str">
         <f aca="false">IF(B415="","",A414+1)</f>
         <v/>
       </c>
-      <c r="I415" s="9"/>
+      <c r="I415" s="10"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="str">
         <f aca="false">IF(B416="","",A415+1)</f>
         <v/>
       </c>
-      <c r="I416" s="9"/>
+      <c r="I416" s="10"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="str">
         <f aca="false">IF(B417="","",A416+1)</f>
         <v/>
       </c>
-      <c r="I417" s="9"/>
+      <c r="I417" s="10"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="str">
         <f aca="false">IF(B418="","",A417+1)</f>
         <v/>
       </c>
-      <c r="I418" s="9"/>
+      <c r="I418" s="10"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="str">
         <f aca="false">IF(B419="","",A418+1)</f>
         <v/>
       </c>
-      <c r="I419" s="9"/>
+      <c r="I419" s="10"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="str">
         <f aca="false">IF(B420="","",A419+1)</f>
         <v/>
       </c>
-      <c r="I420" s="9"/>
+      <c r="I420" s="10"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="str">
         <f aca="false">IF(B421="","",A420+1)</f>
         <v/>
       </c>
-      <c r="I421" s="9"/>
+      <c r="I421" s="10"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="str">
         <f aca="false">IF(B422="","",A421+1)</f>
         <v/>
       </c>
-      <c r="I422" s="9"/>
+      <c r="I422" s="10"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="str">
         <f aca="false">IF(B423="","",A422+1)</f>
         <v/>
       </c>
-      <c r="I423" s="9"/>
+      <c r="I423" s="10"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="str">
         <f aca="false">IF(B424="","",A423+1)</f>
         <v/>
       </c>
-      <c r="I424" s="9"/>
+      <c r="I424" s="10"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="str">
         <f aca="false">IF(B425="","",A424+1)</f>
         <v/>
       </c>
-      <c r="I425" s="9"/>
+      <c r="I425" s="10"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="str">
         <f aca="false">IF(B426="","",A425+1)</f>
         <v/>
       </c>
-      <c r="I426" s="9"/>
+      <c r="I426" s="10"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="str">
         <f aca="false">IF(B427="","",A426+1)</f>
         <v/>
       </c>
-      <c r="I427" s="9"/>
+      <c r="I427" s="10"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="str">
         <f aca="false">IF(B428="","",A427+1)</f>
         <v/>
       </c>
-      <c r="I428" s="9"/>
+      <c r="I428" s="10"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="str">
         <f aca="false">IF(B429="","",A428+1)</f>
         <v/>
       </c>
-      <c r="I429" s="9"/>
+      <c r="I429" s="10"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="str">
         <f aca="false">IF(B430="","",A429+1)</f>
         <v/>
       </c>
-      <c r="I430" s="9"/>
+      <c r="I430" s="10"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="str">
         <f aca="false">IF(B431="","",A430+1)</f>
         <v/>
       </c>
-      <c r="I431" s="9"/>
+      <c r="I431" s="10"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="str">
         <f aca="false">IF(B432="","",A431+1)</f>
         <v/>
       </c>
-      <c r="I432" s="9"/>
+      <c r="I432" s="10"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="str">
         <f aca="false">IF(B433="","",A432+1)</f>
         <v/>
       </c>
-      <c r="I433" s="9"/>
+      <c r="I433" s="10"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="str">
         <f aca="false">IF(B434="","",A433+1)</f>
         <v/>
       </c>
-      <c r="I434" s="9"/>
+      <c r="I434" s="10"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="str">
         <f aca="false">IF(B435="","",A434+1)</f>
         <v/>
       </c>
-      <c r="I435" s="9"/>
+      <c r="I435" s="10"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="str">
         <f aca="false">IF(B436="","",A435+1)</f>
         <v/>
       </c>
-      <c r="I436" s="9"/>
+      <c r="I436" s="10"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="str">
         <f aca="false">IF(B437="","",A436+1)</f>
         <v/>
       </c>
-      <c r="I437" s="9"/>
+      <c r="I437" s="10"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="str">
         <f aca="false">IF(B438="","",A437+1)</f>
         <v/>
       </c>
-      <c r="I438" s="9"/>
+      <c r="I438" s="10"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="str">
         <f aca="false">IF(B439="","",A438+1)</f>
         <v/>
       </c>
-      <c r="I439" s="9"/>
+      <c r="I439" s="10"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="str">
         <f aca="false">IF(B440="","",A439+1)</f>
         <v/>
       </c>
-      <c r="I440" s="9"/>
+      <c r="I440" s="10"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="str">
         <f aca="false">IF(B441="","",A440+1)</f>
         <v/>
       </c>
-      <c r="I441" s="9"/>
+      <c r="I441" s="10"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="str">
         <f aca="false">IF(B442="","",A441+1)</f>
         <v/>
       </c>
-      <c r="I442" s="9"/>
+      <c r="I442" s="10"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="str">
         <f aca="false">IF(B443="","",A442+1)</f>
         <v/>
       </c>
-      <c r="I443" s="9"/>
+      <c r="I443" s="10"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="str">
         <f aca="false">IF(B444="","",A443+1)</f>
         <v/>
       </c>
-      <c r="I444" s="9"/>
+      <c r="I444" s="10"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="str">
         <f aca="false">IF(B445="","",A444+1)</f>
         <v/>
       </c>
-      <c r="I445" s="9"/>
+      <c r="I445" s="10"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="str">
         <f aca="false">IF(B446="","",A445+1)</f>
         <v/>
       </c>
-      <c r="I446" s="9"/>
+      <c r="I446" s="10"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="str">
         <f aca="false">IF(B447="","",A446+1)</f>
         <v/>
       </c>
-      <c r="I447" s="9"/>
+      <c r="I447" s="10"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="str">
         <f aca="false">IF(B448="","",A447+1)</f>
         <v/>
       </c>
-      <c r="I448" s="9"/>
+      <c r="I448" s="10"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="str">
         <f aca="false">IF(B449="","",A448+1)</f>
         <v/>
       </c>
-      <c r="I449" s="9"/>
+      <c r="I449" s="10"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="str">
         <f aca="false">IF(B450="","",A449+1)</f>
         <v/>
       </c>
-      <c r="I450" s="9"/>
+      <c r="I450" s="10"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="str">
         <f aca="false">IF(B451="","",A450+1)</f>
         <v/>
       </c>
-      <c r="I451" s="9"/>
+      <c r="I451" s="10"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="str">
         <f aca="false">IF(B452="","",A451+1)</f>
         <v/>
       </c>
-      <c r="I452" s="9"/>
+      <c r="I452" s="10"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="str">
         <f aca="false">IF(B453="","",A452+1)</f>
         <v/>
       </c>
-      <c r="I453" s="9"/>
+      <c r="I453" s="10"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="str">
         <f aca="false">IF(B454="","",A453+1)</f>
         <v/>
       </c>
-      <c r="I454" s="9"/>
+      <c r="I454" s="10"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="str">
         <f aca="false">IF(B455="","",A454+1)</f>
         <v/>
       </c>
-      <c r="I455" s="9"/>
+      <c r="I455" s="10"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="str">
         <f aca="false">IF(B456="","",A455+1)</f>
         <v/>
       </c>
-      <c r="I456" s="9"/>
+      <c r="I456" s="10"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="str">
         <f aca="false">IF(B457="","",A456+1)</f>
         <v/>
       </c>
-      <c r="I457" s="9"/>
+      <c r="I457" s="10"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="str">
         <f aca="false">IF(B458="","",A457+1)</f>
         <v/>
       </c>
-      <c r="I458" s="9"/>
+      <c r="I458" s="10"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="str">
         <f aca="false">IF(B459="","",A458+1)</f>
         <v/>
       </c>
-      <c r="I459" s="9"/>
+      <c r="I459" s="10"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="str">
         <f aca="false">IF(B460="","",A459+1)</f>
         <v/>
       </c>
-      <c r="I460" s="9"/>
+      <c r="I460" s="10"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="str">
         <f aca="false">IF(B461="","",A460+1)</f>
         <v/>
       </c>
-      <c r="I461" s="9"/>
+      <c r="I461" s="10"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="str">
         <f aca="false">IF(B462="","",A461+1)</f>
         <v/>
       </c>
-      <c r="I462" s="9"/>
+      <c r="I462" s="10"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="str">
         <f aca="false">IF(B463="","",A462+1)</f>
         <v/>
       </c>
-      <c r="I463" s="9"/>
+      <c r="I463" s="10"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="str">
         <f aca="false">IF(B464="","",A463+1)</f>
         <v/>
       </c>
-      <c r="I464" s="9"/>
+      <c r="I464" s="10"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="str">
         <f aca="false">IF(B465="","",A464+1)</f>
         <v/>
       </c>
-      <c r="I465" s="9"/>
+      <c r="I465" s="10"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="str">
         <f aca="false">IF(B466="","",A465+1)</f>
         <v/>
       </c>
-      <c r="I466" s="9"/>
+      <c r="I466" s="10"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="str">
         <f aca="false">IF(B467="","",A466+1)</f>
         <v/>
       </c>
-      <c r="I467" s="9"/>
+      <c r="I467" s="10"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="str">
         <f aca="false">IF(B468="","",A467+1)</f>
         <v/>
       </c>
-      <c r="I468" s="9"/>
+      <c r="I468" s="10"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="str">
         <f aca="false">IF(B469="","",A468+1)</f>
         <v/>
       </c>
-      <c r="I469" s="9"/>
+      <c r="I469" s="10"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="str">
         <f aca="false">IF(B470="","",A469+1)</f>
         <v/>
       </c>
-      <c r="I470" s="9"/>
+      <c r="I470" s="10"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="str">
         <f aca="false">IF(B471="","",A470+1)</f>
         <v/>
       </c>
-      <c r="I471" s="9"/>
+      <c r="I471" s="10"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="str">
         <f aca="false">IF(B472="","",A471+1)</f>
         <v/>
       </c>
-      <c r="I472" s="9"/>
+      <c r="I472" s="10"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="str">
         <f aca="false">IF(B473="","",A472+1)</f>
         <v/>
       </c>
-      <c r="I473" s="9"/>
+      <c r="I473" s="10"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="str">
         <f aca="false">IF(B474="","",A473+1)</f>
         <v/>
       </c>
-      <c r="I474" s="9"/>
+      <c r="I474" s="10"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="str">
         <f aca="false">IF(B475="","",A474+1)</f>
         <v/>
       </c>
-      <c r="I475" s="9"/>
+      <c r="I475" s="10"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="str">
         <f aca="false">IF(B476="","",A475+1)</f>
         <v/>
       </c>
-      <c r="I476" s="9"/>
+      <c r="I476" s="10"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="str">
         <f aca="false">IF(B477="","",A476+1)</f>
         <v/>
       </c>
-      <c r="I477" s="9"/>
+      <c r="I477" s="10"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="str">
         <f aca="false">IF(B478="","",A477+1)</f>
         <v/>
       </c>
-      <c r="I478" s="9"/>
+      <c r="I478" s="10"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="str">
         <f aca="false">IF(B479="","",A478+1)</f>
         <v/>
       </c>
-      <c r="I479" s="9"/>
+      <c r="I479" s="10"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="str">
         <f aca="false">IF(B480="","",A479+1)</f>
         <v/>
       </c>
-      <c r="I480" s="9"/>
+      <c r="I480" s="10"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="str">
         <f aca="false">IF(B481="","",A480+1)</f>
         <v/>
       </c>
-      <c r="I481" s="9"/>
+      <c r="I481" s="10"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="str">
         <f aca="false">IF(B482="","",A481+1)</f>
         <v/>
       </c>
-      <c r="I482" s="9"/>
+      <c r="I482" s="10"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="str">
         <f aca="false">IF(B483="","",A482+1)</f>
         <v/>
       </c>
-      <c r="I483" s="9"/>
+      <c r="I483" s="10"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="str">
         <f aca="false">IF(B484="","",A483+1)</f>
         <v/>
       </c>
-      <c r="I484" s="9"/>
+      <c r="I484" s="10"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="str">
         <f aca="false">IF(B485="","",A484+1)</f>
         <v/>
       </c>
-      <c r="I485" s="9"/>
+      <c r="I485" s="10"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="str">
         <f aca="false">IF(B486="","",A485+1)</f>
         <v/>
       </c>
-      <c r="I486" s="9"/>
+      <c r="I486" s="10"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="str">
         <f aca="false">IF(B487="","",A486+1)</f>
         <v/>
       </c>
-      <c r="I487" s="9"/>
+      <c r="I487" s="10"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="str">
         <f aca="false">IF(B488="","",A487+1)</f>
         <v/>
       </c>
-      <c r="I488" s="9"/>
+      <c r="I488" s="10"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="str">
         <f aca="false">IF(B489="","",A488+1)</f>
         <v/>
       </c>
-      <c r="I489" s="9"/>
+      <c r="I489" s="10"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="str">
         <f aca="false">IF(B490="","",A489+1)</f>
         <v/>
       </c>
-      <c r="I490" s="9"/>
+      <c r="I490" s="10"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="str">
         <f aca="false">IF(B491="","",A490+1)</f>
         <v/>
       </c>
-      <c r="I491" s="9"/>
+      <c r="I491" s="10"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="str">
         <f aca="false">IF(B492="","",A491+1)</f>
         <v/>
       </c>
-      <c r="I492" s="9"/>
+      <c r="I492" s="10"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="str">
         <f aca="false">IF(B493="","",A492+1)</f>
         <v/>
       </c>
-      <c r="I493" s="9"/>
+      <c r="I493" s="10"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="str">
         <f aca="false">IF(B494="","",A493+1)</f>
         <v/>
       </c>
-      <c r="I494" s="9"/>
+      <c r="I494" s="10"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="str">
         <f aca="false">IF(B495="","",A494+1)</f>
         <v/>
       </c>
-      <c r="I495" s="9"/>
+      <c r="I495" s="10"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="str">
         <f aca="false">IF(B496="","",A495+1)</f>
         <v/>
       </c>
-      <c r="I496" s="9"/>
+      <c r="I496" s="10"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="str">
         <f aca="false">IF(B497="","",A496+1)</f>
         <v/>
       </c>
-      <c r="I497" s="9"/>
+      <c r="I497" s="10"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="str">
         <f aca="false">IF(B498="","",A497+1)</f>
         <v/>
       </c>
-      <c r="I498" s="9"/>
+      <c r="I498" s="10"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="str">
         <f aca="false">IF(B499="","",A498+1)</f>
         <v/>
       </c>
-      <c r="I499" s="9"/>
+      <c r="I499" s="10"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="str">
         <f aca="false">IF(B500="","",A499+1)</f>
         <v/>
       </c>
-      <c r="I500" s="9"/>
+      <c r="I500" s="10"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="str">
         <f aca="false">IF(B501="","",A500+1)</f>
         <v/>
       </c>
-      <c r="I501" s="9"/>
+      <c r="I501" s="10"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="str">
         <f aca="false">IF(B502="","",A501+1)</f>
         <v/>
       </c>
-      <c r="I502" s="9"/>
+      <c r="I502" s="10"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="str">
         <f aca="false">IF(B503="","",A502+1)</f>
         <v/>
       </c>
-      <c r="I503" s="9"/>
+      <c r="I503" s="10"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="str">
         <f aca="false">IF(B504="","",A503+1)</f>
         <v/>
       </c>
-      <c r="I504" s="9"/>
+      <c r="I504" s="10"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="str">
         <f aca="false">IF(B505="","",A504+1)</f>
         <v/>
       </c>
-      <c r="I505" s="9"/>
+      <c r="I505" s="10"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="str">
         <f aca="false">IF(B506="","",A505+1)</f>
         <v/>
       </c>
-      <c r="I506" s="9"/>
+      <c r="I506" s="10"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="str">
         <f aca="false">IF(B507="","",A506+1)</f>
         <v/>
       </c>
-      <c r="I507" s="9"/>
+      <c r="I507" s="10"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="str">
         <f aca="false">IF(B508="","",A507+1)</f>
         <v/>
       </c>
-      <c r="I508" s="9"/>
+      <c r="I508" s="10"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="str">
         <f aca="false">IF(B509="","",A508+1)</f>
         <v/>
       </c>
-      <c r="I509" s="9"/>
+      <c r="I509" s="10"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="str">
         <f aca="false">IF(B510="","",A509+1)</f>
         <v/>
       </c>
-      <c r="I510" s="9"/>
+      <c r="I510" s="10"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="str">
         <f aca="false">IF(B511="","",A510+1)</f>
         <v/>
       </c>
-      <c r="I511" s="9"/>
+      <c r="I511" s="10"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="str">
         <f aca="false">IF(B512="","",A511+1)</f>
         <v/>
       </c>
-      <c r="I512" s="9"/>
+      <c r="I512" s="10"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="str">
         <f aca="false">IF(B513="","",A512+1)</f>
         <v/>
       </c>
-      <c r="I513" s="9"/>
+      <c r="I513" s="10"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="str">
         <f aca="false">IF(B514="","",A513+1)</f>
         <v/>
       </c>
-      <c r="I514" s="9"/>
+      <c r="I514" s="10"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="str">
         <f aca="false">IF(B515="","",A514+1)</f>
         <v/>
       </c>
-      <c r="I515" s="9"/>
+      <c r="I515" s="10"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="str">
         <f aca="false">IF(B516="","",A515+1)</f>
         <v/>
       </c>
-      <c r="I516" s="9"/>
+      <c r="I516" s="10"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="str">
         <f aca="false">IF(B517="","",A516+1)</f>
         <v/>
       </c>
-      <c r="I517" s="9"/>
+      <c r="I517" s="10"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="str">
         <f aca="false">IF(B518="","",A517+1)</f>
         <v/>
       </c>
-      <c r="I518" s="9"/>
+      <c r="I518" s="10"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="str">
         <f aca="false">IF(B519="","",A518+1)</f>
         <v/>
       </c>
-      <c r="I519" s="9"/>
+      <c r="I519" s="10"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="str">
         <f aca="false">IF(B520="","",A519+1)</f>
         <v/>
       </c>
-      <c r="I520" s="9"/>
+      <c r="I520" s="10"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="str">
         <f aca="false">IF(B521="","",A520+1)</f>
         <v/>
       </c>
-      <c r="I521" s="9"/>
+      <c r="I521" s="10"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="str">
         <f aca="false">IF(B522="","",A521+1)</f>
         <v/>
       </c>
-      <c r="I522" s="9"/>
+      <c r="I522" s="10"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="str">
         <f aca="false">IF(B523="","",A522+1)</f>
         <v/>
       </c>
-      <c r="I523" s="9"/>
+      <c r="I523" s="10"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="str">
         <f aca="false">IF(B524="","",A523+1)</f>
         <v/>
       </c>
-      <c r="I524" s="9"/>
+      <c r="I524" s="10"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="str">
         <f aca="false">IF(B525="","",A524+1)</f>
         <v/>
       </c>
-      <c r="I525" s="9"/>
+      <c r="I525" s="10"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="str">
         <f aca="false">IF(B526="","",A525+1)</f>
         <v/>
       </c>
-      <c r="I526" s="9"/>
+      <c r="I526" s="10"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="str">
         <f aca="false">IF(B527="","",A526+1)</f>
         <v/>
       </c>
-      <c r="I527" s="9"/>
+      <c r="I527" s="10"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="str">
         <f aca="false">IF(B528="","",A527+1)</f>
         <v/>
       </c>
-      <c r="I528" s="9"/>
+      <c r="I528" s="10"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="str">
         <f aca="false">IF(B529="","",A528+1)</f>
         <v/>
       </c>
-      <c r="I529" s="9"/>
+      <c r="I529" s="10"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="str">
         <f aca="false">IF(B530="","",A529+1)</f>
         <v/>
       </c>
-      <c r="I530" s="9"/>
+      <c r="I530" s="10"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="str">
         <f aca="false">IF(B531="","",A530+1)</f>
         <v/>
       </c>
-      <c r="I531" s="9"/>
+      <c r="I531" s="10"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="str">
         <f aca="false">IF(B532="","",A531+1)</f>
         <v/>
       </c>
-      <c r="I532" s="9"/>
+      <c r="I532" s="10"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="str">
         <f aca="false">IF(B533="","",A532+1)</f>
         <v/>
       </c>
-      <c r="I533" s="9"/>
+      <c r="I533" s="10"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="str">
         <f aca="false">IF(B534="","",A533+1)</f>
         <v/>
       </c>
-      <c r="I534" s="9"/>
+      <c r="I534" s="10"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="str">
         <f aca="false">IF(B535="","",A534+1)</f>
         <v/>
       </c>
-      <c r="I535" s="9"/>
+      <c r="I535" s="10"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="str">
         <f aca="false">IF(B536="","",A535+1)</f>
         <v/>
       </c>
-      <c r="I536" s="9"/>
+      <c r="I536" s="10"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="str">
         <f aca="false">IF(B537="","",A536+1)</f>
         <v/>
       </c>
-      <c r="I537" s="9"/>
+      <c r="I537" s="10"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="str">
         <f aca="false">IF(B538="","",A537+1)</f>
         <v/>
       </c>
-      <c r="I538" s="9"/>
+      <c r="I538" s="10"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="str">
         <f aca="false">IF(B539="","",A538+1)</f>
         <v/>
       </c>
-      <c r="I539" s="9"/>
+      <c r="I539" s="10"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="str">
         <f aca="false">IF(B540="","",A539+1)</f>
         <v/>
       </c>
-      <c r="I540" s="9"/>
+      <c r="I540" s="10"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="str">
         <f aca="false">IF(B541="","",A540+1)</f>
         <v/>
       </c>
-      <c r="I541" s="9"/>
+      <c r="I541" s="10"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="str">
         <f aca="false">IF(B542="","",A541+1)</f>
         <v/>
       </c>
-      <c r="I542" s="9"/>
+      <c r="I542" s="10"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="str">
         <f aca="false">IF(B543="","",A542+1)</f>
         <v/>
       </c>
-      <c r="I543" s="9"/>
+      <c r="I543" s="10"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="str">
         <f aca="false">IF(B544="","",A543+1)</f>
         <v/>
       </c>
-      <c r="I544" s="9"/>
+      <c r="I544" s="10"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="str">
         <f aca="false">IF(B545="","",A544+1)</f>
         <v/>
       </c>
-      <c r="I545" s="9"/>
+      <c r="I545" s="10"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="str">
         <f aca="false">IF(B546="","",A545+1)</f>
         <v/>
       </c>
-      <c r="I546" s="9"/>
+      <c r="I546" s="10"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="str">
         <f aca="false">IF(B547="","",A546+1)</f>
         <v/>
       </c>
-      <c r="I547" s="9"/>
+      <c r="I547" s="10"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="str">
         <f aca="false">IF(B548="","",A547+1)</f>
         <v/>
       </c>
-      <c r="I548" s="9"/>
+      <c r="I548" s="10"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="str">
         <f aca="false">IF(B549="","",A548+1)</f>
         <v/>
       </c>
-      <c r="I549" s="9"/>
+      <c r="I549" s="10"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="str">
         <f aca="false">IF(B550="","",A549+1)</f>
         <v/>
       </c>
-      <c r="I550" s="9"/>
+      <c r="I550" s="10"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="str">
         <f aca="false">IF(B551="","",A550+1)</f>
         <v/>
       </c>
-      <c r="I551" s="9"/>
+      <c r="I551" s="10"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="str">
         <f aca="false">IF(B552="","",A551+1)</f>
         <v/>
       </c>
-      <c r="I552" s="9"/>
+      <c r="I552" s="10"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="str">
         <f aca="false">IF(B553="","",A552+1)</f>
         <v/>
       </c>
-      <c r="I553" s="9"/>
+      <c r="I553" s="10"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="str">
         <f aca="false">IF(B554="","",A553+1)</f>
         <v/>
       </c>
-      <c r="I554" s="9"/>
+      <c r="I554" s="10"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="str">
         <f aca="false">IF(B555="","",A554+1)</f>
         <v/>
       </c>
-      <c r="I555" s="9"/>
+      <c r="I555" s="10"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="str">
         <f aca="false">IF(B556="","",A555+1)</f>
         <v/>
       </c>
-      <c r="I556" s="9"/>
+      <c r="I556" s="10"/>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="str">
         <f aca="false">IF(B557="","",A556+1)</f>
         <v/>
       </c>
-      <c r="I557" s="9"/>
+      <c r="I557" s="10"/>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="str">
         <f aca="false">IF(B558="","",A557+1)</f>
         <v/>
       </c>
-      <c r="I558" s="9"/>
+      <c r="I558" s="10"/>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="str">
         <f aca="false">IF(B559="","",A558+1)</f>
         <v/>
       </c>
-      <c r="I559" s="9"/>
+      <c r="I559" s="10"/>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="str">
         <f aca="false">IF(B560="","",A559+1)</f>
         <v/>
       </c>
-      <c r="I560" s="9"/>
+      <c r="I560" s="10"/>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="str">
         <f aca="false">IF(B561="","",A560+1)</f>
         <v/>
       </c>
-      <c r="I561" s="9"/>
+      <c r="I561" s="10"/>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="str">
         <f aca="false">IF(B562="","",A561+1)</f>
         <v/>
       </c>
-      <c r="I562" s="9"/>
+      <c r="I562" s="10"/>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="str">
         <f aca="false">IF(B563="","",A562+1)</f>
         <v/>
       </c>
-      <c r="I563" s="9"/>
+      <c r="I563" s="10"/>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="str">
         <f aca="false">IF(B564="","",A563+1)</f>
         <v/>
       </c>
-      <c r="I564" s="9"/>
+      <c r="I564" s="10"/>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="str">
         <f aca="false">IF(B565="","",A564+1)</f>
         <v/>
       </c>
-      <c r="I565" s="9"/>
+      <c r="I565" s="10"/>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="str">
         <f aca="false">IF(B566="","",A565+1)</f>
         <v/>
       </c>
-      <c r="I566" s="9"/>
+      <c r="I566" s="10"/>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="str">
         <f aca="false">IF(B567="","",A566+1)</f>
         <v/>
       </c>
-      <c r="I567" s="9"/>
+      <c r="I567" s="10"/>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="str">
         <f aca="false">IF(B568="","",A567+1)</f>
         <v/>
       </c>
-      <c r="I568" s="9"/>
+      <c r="I568" s="10"/>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="str">
         <f aca="false">IF(B569="","",A568+1)</f>
         <v/>
       </c>
-      <c r="I569" s="9"/>
+      <c r="I569" s="10"/>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="str">
         <f aca="false">IF(B570="","",A569+1)</f>
         <v/>
       </c>
-      <c r="I570" s="9"/>
+      <c r="I570" s="10"/>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="str">
         <f aca="false">IF(B571="","",A570+1)</f>
         <v/>
       </c>
-      <c r="I571" s="9"/>
+      <c r="I571" s="10"/>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="str">
         <f aca="false">IF(B572="","",A571+1)</f>
         <v/>
       </c>
-      <c r="I572" s="9"/>
+      <c r="I572" s="10"/>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="str">
         <f aca="false">IF(B573="","",A572+1)</f>
         <v/>
       </c>
-      <c r="I573" s="9"/>
+      <c r="I573" s="10"/>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="str">
         <f aca="false">IF(B574="","",A573+1)</f>
         <v/>
       </c>
-      <c r="I574" s="9"/>
+      <c r="I574" s="10"/>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="str">
         <f aca="false">IF(B575="","",A574+1)</f>
         <v/>
       </c>
-      <c r="I575" s="9"/>
+      <c r="I575" s="10"/>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="str">
         <f aca="false">IF(B576="","",A575+1)</f>
         <v/>
       </c>
-      <c r="I576" s="9"/>
+      <c r="I576" s="10"/>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="str">
         <f aca="false">IF(B577="","",A576+1)</f>
         <v/>
       </c>
-      <c r="I577" s="9"/>
+      <c r="I577" s="10"/>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="str">
         <f aca="false">IF(B578="","",A577+1)</f>
         <v/>
       </c>
-      <c r="I578" s="9"/>
+      <c r="I578" s="10"/>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="str">
         <f aca="false">IF(B579="","",A578+1)</f>
         <v/>
       </c>
-      <c r="I579" s="9"/>
+      <c r="I579" s="10"/>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="str">
         <f aca="false">IF(B580="","",A579+1)</f>
         <v/>
       </c>
-      <c r="I580" s="9"/>
+      <c r="I580" s="10"/>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="str">
         <f aca="false">IF(B581="","",A580+1)</f>
         <v/>
       </c>
-      <c r="I581" s="9"/>
+      <c r="I581" s="10"/>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="str">
         <f aca="false">IF(B582="","",A581+1)</f>
         <v/>
       </c>
-      <c r="I582" s="9"/>
+      <c r="I582" s="10"/>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="str">
         <f aca="false">IF(B583="","",A582+1)</f>
         <v/>
       </c>
-      <c r="I583" s="9"/>
+      <c r="I583" s="10"/>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="str">
         <f aca="false">IF(B584="","",A583+1)</f>
         <v/>
       </c>
-      <c r="I584" s="9"/>
+      <c r="I584" s="10"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="str">
         <f aca="false">IF(B585="","",A584+1)</f>
         <v/>
       </c>
-      <c r="I585" s="9"/>
+      <c r="I585" s="10"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="str">
         <f aca="false">IF(B586="","",A585+1)</f>
         <v/>
       </c>
-      <c r="I586" s="9"/>
+      <c r="I586" s="10"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="str">
         <f aca="false">IF(B587="","",A586+1)</f>
         <v/>
       </c>
-      <c r="I587" s="9"/>
+      <c r="I587" s="10"/>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="str">
         <f aca="false">IF(B588="","",A587+1)</f>
         <v/>
       </c>
-      <c r="I588" s="9"/>
+      <c r="I588" s="10"/>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="str">
         <f aca="false">IF(B589="","",A588+1)</f>
         <v/>
       </c>
-      <c r="I589" s="9"/>
+      <c r="I589" s="10"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="str">
         <f aca="false">IF(B590="","",A589+1)</f>
         <v/>
       </c>
-      <c r="I590" s="9"/>
+      <c r="I590" s="10"/>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="str">
         <f aca="false">IF(B591="","",A590+1)</f>
         <v/>
       </c>
-      <c r="I591" s="9"/>
+      <c r="I591" s="10"/>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="str">
         <f aca="false">IF(B592="","",A591+1)</f>
         <v/>
       </c>
-      <c r="I592" s="9"/>
+      <c r="I592" s="10"/>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="str">
         <f aca="false">IF(B593="","",A592+1)</f>
         <v/>
       </c>
-      <c r="I593" s="9"/>
+      <c r="I593" s="10"/>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="str">
         <f aca="false">IF(B594="","",A593+1)</f>
         <v/>
       </c>
-      <c r="I594" s="9"/>
+      <c r="I594" s="10"/>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="str">
         <f aca="false">IF(B595="","",A594+1)</f>
         <v/>
       </c>
-      <c r="I595" s="9"/>
+      <c r="I595" s="10"/>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="str">
         <f aca="false">IF(B596="","",A595+1)</f>
         <v/>
       </c>
-      <c r="I596" s="9"/>
+      <c r="I596" s="10"/>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="str">
         <f aca="false">IF(B597="","",A596+1)</f>
         <v/>
       </c>
-      <c r="I597" s="9"/>
+      <c r="I597" s="10"/>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="str">
         <f aca="false">IF(B598="","",A597+1)</f>
         <v/>
       </c>
-      <c r="I598" s="9"/>
+      <c r="I598" s="10"/>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="str">
         <f aca="false">IF(B599="","",A598+1)</f>
         <v/>
       </c>
-      <c r="I599" s="9"/>
+      <c r="I599" s="10"/>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="str">
         <f aca="false">IF(B600="","",A599+1)</f>
         <v/>
       </c>
-      <c r="I600" s="9"/>
+      <c r="I600" s="10"/>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="str">
         <f aca="false">IF(B601="","",A600+1)</f>
         <v/>
       </c>
-      <c r="I601" s="9"/>
+      <c r="I601" s="10"/>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="str">
         <f aca="false">IF(B602="","",A601+1)</f>
         <v/>
       </c>
-      <c r="I602" s="9"/>
+      <c r="I602" s="10"/>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="str">
         <f aca="false">IF(B603="","",A602+1)</f>
         <v/>
       </c>
-      <c r="I603" s="9"/>
+      <c r="I603" s="10"/>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="str">
         <f aca="false">IF(B604="","",A603+1)</f>
         <v/>
       </c>
-      <c r="I604" s="9"/>
+      <c r="I604" s="10"/>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="str">
         <f aca="false">IF(B605="","",A604+1)</f>
         <v/>
       </c>
-      <c r="I605" s="9"/>
+      <c r="I605" s="10"/>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="str">
         <f aca="false">IF(B606="","",A605+1)</f>
         <v/>
       </c>
-      <c r="I606" s="9"/>
+      <c r="I606" s="10"/>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="str">
         <f aca="false">IF(B607="","",A606+1)</f>
         <v/>
       </c>
-      <c r="I607" s="9"/>
+      <c r="I607" s="10"/>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="str">
         <f aca="false">IF(B608="","",A607+1)</f>
         <v/>
       </c>
-      <c r="I608" s="9"/>
+      <c r="I608" s="10"/>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="str">
         <f aca="false">IF(B609="","",A608+1)</f>
         <v/>
       </c>
-      <c r="I609" s="9"/>
+      <c r="I609" s="10"/>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="str">
         <f aca="false">IF(B610="","",A609+1)</f>
         <v/>
       </c>
-      <c r="I610" s="9"/>
+      <c r="I610" s="10"/>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="str">
         <f aca="false">IF(B611="","",A610+1)</f>
         <v/>
       </c>
-      <c r="I611" s="9"/>
+      <c r="I611" s="10"/>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="str">
         <f aca="false">IF(B612="","",A611+1)</f>
         <v/>
       </c>
-      <c r="I612" s="9"/>
+      <c r="I612" s="10"/>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="str">
         <f aca="false">IF(B613="","",A612+1)</f>
         <v/>
       </c>
-      <c r="I613" s="9"/>
+      <c r="I613" s="10"/>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="str">
         <f aca="false">IF(B614="","",A613+1)</f>
         <v/>
       </c>
-      <c r="I614" s="9"/>
+      <c r="I614" s="10"/>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="str">
         <f aca="false">IF(B615="","",A614+1)</f>
         <v/>
       </c>
-      <c r="I615" s="9"/>
+      <c r="I615" s="10"/>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="str">
         <f aca="false">IF(B616="","",A615+1)</f>
         <v/>
       </c>
-      <c r="I616" s="9"/>
+      <c r="I616" s="10"/>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="str">
         <f aca="false">IF(B617="","",A616+1)</f>
         <v/>
       </c>
-      <c r="I617" s="9"/>
+      <c r="I617" s="10"/>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="str">
         <f aca="false">IF(B618="","",A617+1)</f>
         <v/>
       </c>
-      <c r="I618" s="9"/>
+      <c r="I618" s="10"/>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="str">
         <f aca="false">IF(B619="","",A618+1)</f>
         <v/>
       </c>
-      <c r="I619" s="9"/>
+      <c r="I619" s="10"/>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="str">
         <f aca="false">IF(B620="","",A619+1)</f>
         <v/>
       </c>
-      <c r="I620" s="9"/>
+      <c r="I620" s="10"/>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="str">
         <f aca="false">IF(B621="","",A620+1)</f>
         <v/>
       </c>
-      <c r="I621" s="9"/>
+      <c r="I621" s="10"/>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="str">
         <f aca="false">IF(B622="","",A621+1)</f>
         <v/>
       </c>
-      <c r="I622" s="9"/>
+      <c r="I622" s="10"/>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="str">
         <f aca="false">IF(B623="","",A622+1)</f>
         <v/>
       </c>
-      <c r="I623" s="9"/>
+      <c r="I623" s="10"/>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="str">
         <f aca="false">IF(B624="","",A623+1)</f>
         <v/>
       </c>
-      <c r="I624" s="9"/>
+      <c r="I624" s="10"/>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="str">
         <f aca="false">IF(B625="","",A624+1)</f>
         <v/>
       </c>
-      <c r="I625" s="9"/>
+      <c r="I625" s="10"/>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="str">
         <f aca="false">IF(B626="","",A625+1)</f>
         <v/>
       </c>
-      <c r="I626" s="9"/>
+      <c r="I626" s="10"/>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="str">
         <f aca="false">IF(B627="","",A626+1)</f>
         <v/>
       </c>
-      <c r="I627" s="9"/>
+      <c r="I627" s="10"/>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="str">
         <f aca="false">IF(B628="","",A627+1)</f>
         <v/>
       </c>
-      <c r="I628" s="9"/>
+      <c r="I628" s="10"/>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="str">
         <f aca="false">IF(B629="","",A628+1)</f>
         <v/>
       </c>
-      <c r="I629" s="9"/>
+      <c r="I629" s="10"/>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="str">
         <f aca="false">IF(B630="","",A629+1)</f>
         <v/>
       </c>
-      <c r="I630" s="9"/>
+      <c r="I630" s="10"/>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="str">
         <f aca="false">IF(B631="","",A630+1)</f>
         <v/>
       </c>
-      <c r="I631" s="9"/>
+      <c r="I631" s="10"/>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="str">
         <f aca="false">IF(B632="","",A631+1)</f>
         <v/>
       </c>
-      <c r="I632" s="9"/>
+      <c r="I632" s="10"/>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="str">
         <f aca="false">IF(B633="","",A632+1)</f>
         <v/>
       </c>
-      <c r="I633" s="9"/>
+      <c r="I633" s="10"/>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="str">
         <f aca="false">IF(B634="","",A633+1)</f>
         <v/>
       </c>
-      <c r="I634" s="9"/>
+      <c r="I634" s="10"/>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="str">
         <f aca="false">IF(B635="","",A634+1)</f>
         <v/>
       </c>
-      <c r="I635" s="9"/>
+      <c r="I635" s="10"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="str">
         <f aca="false">IF(B636="","",A635+1)</f>
         <v/>
       </c>
-      <c r="I636" s="9"/>
+      <c r="I636" s="10"/>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="str">
         <f aca="false">IF(B637="","",A636+1)</f>
         <v/>
       </c>
-      <c r="I637" s="9"/>
+      <c r="I637" s="10"/>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="str">
         <f aca="false">IF(B638="","",A637+1)</f>
         <v/>
       </c>
-      <c r="I638" s="9"/>
+      <c r="I638" s="10"/>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="str">
         <f aca="false">IF(B639="","",A638+1)</f>
         <v/>
       </c>
-      <c r="I639" s="9"/>
+      <c r="I639" s="10"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="str">
         <f aca="false">IF(B640="","",A639+1)</f>
         <v/>
       </c>
-      <c r="I640" s="9"/>
+      <c r="I640" s="10"/>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="str">
         <f aca="false">IF(B641="","",A640+1)</f>
         <v/>
       </c>
-      <c r="I641" s="9"/>
+      <c r="I641" s="10"/>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="str">
         <f aca="false">IF(B642="","",A641+1)</f>
         <v/>
       </c>
-      <c r="I642" s="9"/>
+      <c r="I642" s="10"/>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="str">
         <f aca="false">IF(B643="","",A642+1)</f>
         <v/>
       </c>
-      <c r="I643" s="9"/>
+      <c r="I643" s="10"/>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="str">
         <f aca="false">IF(B644="","",A643+1)</f>
         <v/>
       </c>
-      <c r="I644" s="9"/>
+      <c r="I644" s="10"/>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="str">
         <f aca="false">IF(B645="","",A644+1)</f>
         <v/>
       </c>
-      <c r="I645" s="9"/>
+      <c r="I645" s="10"/>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="str">
         <f aca="false">IF(B646="","",A645+1)</f>
         <v/>
       </c>
-      <c r="I646" s="9"/>
+      <c r="I646" s="10"/>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="str">
         <f aca="false">IF(B647="","",A646+1)</f>
         <v/>
       </c>
-      <c r="I647" s="9"/>
+      <c r="I647" s="10"/>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="str">
         <f aca="false">IF(B648="","",A647+1)</f>
         <v/>
       </c>
-      <c r="I648" s="9"/>
+      <c r="I648" s="10"/>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="str">
         <f aca="false">IF(B649="","",A648+1)</f>
         <v/>
       </c>
-      <c r="I649" s="9"/>
+      <c r="I649" s="10"/>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="str">
         <f aca="false">IF(B650="","",A649+1)</f>
         <v/>
       </c>
-      <c r="I650" s="9"/>
+      <c r="I650" s="10"/>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="str">
         <f aca="false">IF(B651="","",A650+1)</f>
         <v/>
       </c>
-      <c r="I651" s="9"/>
+      <c r="I651" s="10"/>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="str">
         <f aca="false">IF(B652="","",A651+1)</f>
         <v/>
       </c>
-      <c r="I652" s="9"/>
+      <c r="I652" s="10"/>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="str">
         <f aca="false">IF(B653="","",A652+1)</f>
         <v/>
       </c>
-      <c r="I653" s="9"/>
+      <c r="I653" s="10"/>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="str">
         <f aca="false">IF(B654="","",A653+1)</f>
         <v/>
       </c>
-      <c r="I654" s="9"/>
+      <c r="I654" s="10"/>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="str">
         <f aca="false">IF(B655="","",A654+1)</f>
         <v/>
       </c>
-      <c r="I655" s="9"/>
+      <c r="I655" s="10"/>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="str">
         <f aca="false">IF(B656="","",A655+1)</f>
         <v/>
       </c>
-      <c r="I656" s="9"/>
+      <c r="I656" s="10"/>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="str">
         <f aca="false">IF(B657="","",A656+1)</f>
         <v/>
       </c>
-      <c r="I657" s="9"/>
+      <c r="I657" s="10"/>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="str">
         <f aca="false">IF(B658="","",A657+1)</f>
         <v/>
       </c>
-      <c r="I658" s="9"/>
+      <c r="I658" s="10"/>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="str">
         <f aca="false">IF(B659="","",A658+1)</f>
         <v/>
       </c>
-      <c r="I659" s="9"/>
+      <c r="I659" s="10"/>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="str">
         <f aca="false">IF(B660="","",A659+1)</f>
         <v/>
       </c>
-      <c r="I660" s="9"/>
+      <c r="I660" s="10"/>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="str">
         <f aca="false">IF(B661="","",A660+1)</f>
         <v/>
       </c>
-      <c r="I661" s="9"/>
+      <c r="I661" s="10"/>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="str">
         <f aca="false">IF(B662="","",A661+1)</f>
         <v/>
       </c>
-      <c r="I662" s="9"/>
+      <c r="I662" s="10"/>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="str">
         <f aca="false">IF(B663="","",A662+1)</f>
         <v/>
       </c>
-      <c r="I663" s="9"/>
+      <c r="I663" s="10"/>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="str">
         <f aca="false">IF(B664="","",A663+1)</f>
         <v/>
       </c>
-      <c r="I664" s="9"/>
+      <c r="I664" s="10"/>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="str">
         <f aca="false">IF(B665="","",A664+1)</f>
         <v/>
       </c>
-      <c r="I665" s="9"/>
+      <c r="I665" s="10"/>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="str">
         <f aca="false">IF(B666="","",A665+1)</f>
         <v/>
       </c>
-      <c r="I666" s="9"/>
+      <c r="I666" s="10"/>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="str">
         <f aca="false">IF(B667="","",A666+1)</f>
         <v/>
       </c>
-      <c r="I667" s="9"/>
+      <c r="I667" s="10"/>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="str">
         <f aca="false">IF(B668="","",A667+1)</f>
         <v/>
       </c>
-      <c r="I668" s="9"/>
+      <c r="I668" s="10"/>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="str">
         <f aca="false">IF(B669="","",A668+1)</f>
         <v/>
       </c>
-      <c r="I669" s="9"/>
+      <c r="I669" s="10"/>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="str">
         <f aca="false">IF(B670="","",A669+1)</f>
         <v/>
       </c>
-      <c r="I670" s="9"/>
+      <c r="I670" s="10"/>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="str">
         <f aca="false">IF(B671="","",A670+1)</f>
         <v/>
       </c>
-      <c r="I671" s="9"/>
+      <c r="I671" s="10"/>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="str">
         <f aca="false">IF(B672="","",A671+1)</f>
         <v/>
       </c>
-      <c r="I672" s="9"/>
+      <c r="I672" s="10"/>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="str">
         <f aca="false">IF(B673="","",A672+1)</f>
         <v/>
       </c>
-      <c r="I673" s="9"/>
+      <c r="I673" s="10"/>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="str">
         <f aca="false">IF(B674="","",A673+1)</f>
         <v/>
       </c>
-      <c r="I674" s="9"/>
+      <c r="I674" s="10"/>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="str">
         <f aca="false">IF(B675="","",A674+1)</f>
         <v/>
       </c>
-      <c r="I675" s="9"/>
+      <c r="I675" s="10"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="str">
         <f aca="false">IF(B676="","",A675+1)</f>
         <v/>
       </c>
-      <c r="I676" s="9"/>
+      <c r="I676" s="10"/>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="str">
         <f aca="false">IF(B677="","",A676+1)</f>
         <v/>
       </c>
-      <c r="I677" s="9"/>
+      <c r="I677" s="10"/>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="str">
         <f aca="false">IF(B678="","",A677+1)</f>
         <v/>
       </c>
-      <c r="I678" s="9"/>
+      <c r="I678" s="10"/>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="str">
         <f aca="false">IF(B679="","",A678+1)</f>
         <v/>
       </c>
-      <c r="I679" s="9"/>
+      <c r="I679" s="10"/>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="str">
         <f aca="false">IF(B680="","",A679+1)</f>
         <v/>
       </c>
-      <c r="I680" s="9"/>
+      <c r="I680" s="10"/>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="str">
         <f aca="false">IF(B681="","",A680+1)</f>
         <v/>
       </c>
-      <c r="I681" s="9"/>
+      <c r="I681" s="10"/>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="str">
         <f aca="false">IF(B682="","",A681+1)</f>
         <v/>
       </c>
-      <c r="I682" s="9"/>
+      <c r="I682" s="10"/>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="str">
         <f aca="false">IF(B683="","",A682+1)</f>
         <v/>
       </c>
-      <c r="I683" s="9"/>
+      <c r="I683" s="10"/>
     </row>
     <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="str">
         <f aca="false">IF(B684="","",A683+1)</f>
         <v/>
       </c>
-      <c r="I684" s="9"/>
+      <c r="I684" s="10"/>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="str">
         <f aca="false">IF(B685="","",A684+1)</f>
         <v/>
       </c>
-      <c r="I685" s="9"/>
+      <c r="I685" s="10"/>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="str">
         <f aca="false">IF(B686="","",A685+1)</f>
         <v/>
       </c>
-      <c r="I686" s="9"/>
+      <c r="I686" s="10"/>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="str">
         <f aca="false">IF(B687="","",A686+1)</f>
         <v/>
       </c>
-      <c r="I687" s="9"/>
+      <c r="I687" s="10"/>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="str">
         <f aca="false">IF(B688="","",A687+1)</f>
         <v/>
       </c>
-      <c r="I688" s="9"/>
+      <c r="I688" s="10"/>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="str">
         <f aca="false">IF(B689="","",A688+1)</f>
         <v/>
       </c>
-      <c r="I689" s="9"/>
+      <c r="I689" s="10"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="str">
         <f aca="false">IF(B690="","",A689+1)</f>
         <v/>
       </c>
-      <c r="I690" s="9"/>
+      <c r="I690" s="10"/>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="str">
         <f aca="false">IF(B691="","",A690+1)</f>
         <v/>
       </c>
-      <c r="I691" s="9"/>
+      <c r="I691" s="10"/>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="str">
         <f aca="false">IF(B692="","",A691+1)</f>
         <v/>
       </c>
-      <c r="I692" s="9"/>
+      <c r="I692" s="10"/>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="str">
         <f aca="false">IF(B693="","",A692+1)</f>
         <v/>
       </c>
-      <c r="I693" s="9"/>
+      <c r="I693" s="10"/>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="str">
         <f aca="false">IF(B694="","",A693+1)</f>
         <v/>
       </c>
-      <c r="I694" s="9"/>
+      <c r="I694" s="10"/>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="str">
         <f aca="false">IF(B695="","",A694+1)</f>
         <v/>
       </c>
-      <c r="I695" s="9"/>
+      <c r="I695" s="10"/>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="str">
         <f aca="false">IF(B696="","",A695+1)</f>
         <v/>
       </c>
-      <c r="I696" s="9"/>
+      <c r="I696" s="10"/>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="str">
         <f aca="false">IF(B697="","",A696+1)</f>
         <v/>
       </c>
-      <c r="I697" s="9"/>
+      <c r="I697" s="10"/>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="str">
         <f aca="false">IF(B698="","",A697+1)</f>
         <v/>
       </c>
-      <c r="I698" s="9"/>
+      <c r="I698" s="10"/>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="str">
         <f aca="false">IF(B699="","",A698+1)</f>
         <v/>
       </c>
-      <c r="I699" s="9"/>
+      <c r="I699" s="10"/>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="str">
         <f aca="false">IF(B700="","",A699+1)</f>
         <v/>
       </c>
-      <c r="I700" s="9"/>
+      <c r="I700" s="10"/>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="str">
         <f aca="false">IF(B701="","",A700+1)</f>
         <v/>
       </c>
-      <c r="I701" s="9"/>
+      <c r="I701" s="10"/>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="str">
         <f aca="false">IF(B702="","",A701+1)</f>
         <v/>
       </c>
-      <c r="I702" s="9"/>
+      <c r="I702" s="10"/>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="str">
         <f aca="false">IF(B703="","",A702+1)</f>
         <v/>
       </c>
-      <c r="I703" s="9"/>
+      <c r="I703" s="10"/>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="str">
         <f aca="false">IF(B704="","",A703+1)</f>
         <v/>
       </c>
-      <c r="I704" s="9"/>
+      <c r="I704" s="10"/>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="str">
         <f aca="false">IF(B705="","",A704+1)</f>
         <v/>
       </c>
-      <c r="I705" s="9"/>
+      <c r="I705" s="10"/>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="str">
         <f aca="false">IF(B706="","",A705+1)</f>
         <v/>
       </c>
-      <c r="I706" s="9"/>
+      <c r="I706" s="10"/>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="str">
         <f aca="false">IF(B707="","",A706+1)</f>
         <v/>
       </c>
-      <c r="I707" s="9"/>
+      <c r="I707" s="10"/>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="str">
         <f aca="false">IF(B708="","",A707+1)</f>
         <v/>
       </c>
-      <c r="I708" s="9"/>
+      <c r="I708" s="10"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="str">
         <f aca="false">IF(B709="","",A708+1)</f>
         <v/>
       </c>
-      <c r="I709" s="9"/>
+      <c r="I709" s="10"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="str">
         <f aca="false">IF(B710="","",A709+1)</f>
         <v/>
       </c>
-      <c r="I710" s="9"/>
+      <c r="I710" s="10"/>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="str">
         <f aca="false">IF(B711="","",A710+1)</f>
         <v/>
       </c>
-      <c r="I711" s="9"/>
+      <c r="I711" s="10"/>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="str">
         <f aca="false">IF(B712="","",A711+1)</f>
         <v/>
       </c>
-      <c r="I712" s="9"/>
+      <c r="I712" s="10"/>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="str">
         <f aca="false">IF(B713="","",A712+1)</f>
         <v/>
       </c>
-      <c r="I713" s="9"/>
+      <c r="I713" s="10"/>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="str">
         <f aca="false">IF(B714="","",A713+1)</f>
         <v/>
       </c>
-      <c r="I714" s="9"/>
+      <c r="I714" s="10"/>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="str">
         <f aca="false">IF(B715="","",A714+1)</f>
         <v/>
       </c>
-      <c r="I715" s="9"/>
+      <c r="I715" s="10"/>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="str">
         <f aca="false">IF(B716="","",A715+1)</f>
         <v/>
       </c>
-      <c r="I716" s="9"/>
+      <c r="I716" s="10"/>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="str">
         <f aca="false">IF(B717="","",A716+1)</f>
         <v/>
       </c>
-      <c r="I717" s="9"/>
+      <c r="I717" s="10"/>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="str">
         <f aca="false">IF(B718="","",A717+1)</f>
         <v/>
       </c>
-      <c r="I718" s="9"/>
+      <c r="I718" s="10"/>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="str">
         <f aca="false">IF(B719="","",A718+1)</f>
         <v/>
       </c>
-      <c r="I719" s="9"/>
+      <c r="I719" s="10"/>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="str">
         <f aca="false">IF(B720="","",A719+1)</f>
         <v/>
       </c>
-      <c r="I720" s="9"/>
+      <c r="I720" s="10"/>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="str">
         <f aca="false">IF(B721="","",A720+1)</f>
         <v/>
       </c>
-      <c r="I721" s="9"/>
+      <c r="I721" s="10"/>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="str">
         <f aca="false">IF(B722="","",A721+1)</f>
         <v/>
       </c>
-      <c r="I722" s="9"/>
+      <c r="I722" s="10"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="str">
         <f aca="false">IF(B723="","",A722+1)</f>
         <v/>
       </c>
-      <c r="I723" s="9"/>
+      <c r="I723" s="10"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="str">
         <f aca="false">IF(B724="","",A723+1)</f>
         <v/>
       </c>
-      <c r="I724" s="9"/>
+      <c r="I724" s="10"/>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="str">
         <f aca="false">IF(B725="","",A724+1)</f>
         <v/>
       </c>
-      <c r="I725" s="9"/>
+      <c r="I725" s="10"/>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="str">
         <f aca="false">IF(B726="","",A725+1)</f>
         <v/>
       </c>
-      <c r="I726" s="9"/>
+      <c r="I726" s="10"/>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="str">
         <f aca="false">IF(B727="","",A726+1)</f>
         <v/>
       </c>
-      <c r="I727" s="9"/>
+      <c r="I727" s="10"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="str">
         <f aca="false">IF(B728="","",A727+1)</f>
         <v/>
       </c>
-      <c r="I728" s="9"/>
+      <c r="I728" s="10"/>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="str">
         <f aca="false">IF(B729="","",A728+1)</f>
         <v/>
       </c>
-      <c r="I729" s="9"/>
+      <c r="I729" s="10"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="str">
         <f aca="false">IF(B730="","",A729+1)</f>
         <v/>
       </c>
-      <c r="I730" s="9"/>
+      <c r="I730" s="10"/>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="str">
         <f aca="false">IF(B731="","",A730+1)</f>
         <v/>
       </c>
-      <c r="I731" s="9"/>
+      <c r="I731" s="10"/>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="str">
         <f aca="false">IF(B732="","",A731+1)</f>
         <v/>
       </c>
-      <c r="I732" s="9"/>
+      <c r="I732" s="10"/>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="str">
         <f aca="false">IF(B733="","",A732+1)</f>
         <v/>
       </c>
-      <c r="I733" s="9"/>
+      <c r="I733" s="10"/>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="str">
         <f aca="false">IF(B734="","",A733+1)</f>
         <v/>
       </c>
-      <c r="I734" s="9"/>
+      <c r="I734" s="10"/>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="1" t="str">
         <f aca="false">IF(B735="","",A734+1)</f>
         <v/>
       </c>
-      <c r="I735" s="9"/>
+      <c r="I735" s="10"/>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="1" t="str">
         <f aca="false">IF(B736="","",A735+1)</f>
         <v/>
       </c>
-      <c r="I736" s="9"/>
+      <c r="I736" s="10"/>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="1" t="str">
         <f aca="false">IF(B737="","",A736+1)</f>
         <v/>
       </c>
-      <c r="I737" s="9"/>
+      <c r="I737" s="10"/>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="1" t="str">
         <f aca="false">IF(B738="","",A737+1)</f>
         <v/>
       </c>
-      <c r="I738" s="9"/>
+      <c r="I738" s="10"/>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="1" t="str">
         <f aca="false">IF(B739="","",A738+1)</f>
         <v/>
       </c>
-      <c r="I739" s="9"/>
+      <c r="I739" s="10"/>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="1" t="str">
         <f aca="false">IF(B740="","",A739+1)</f>
         <v/>
       </c>
-      <c r="I740" s="9"/>
+      <c r="I740" s="10"/>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="str">
         <f aca="false">IF(B741="","",A740+1)</f>
         <v/>
       </c>
-      <c r="I741" s="9"/>
+      <c r="I741" s="10"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="str">
         <f aca="false">IF(B742="","",A741+1)</f>
         <v/>
       </c>
-      <c r="I742" s="9"/>
+      <c r="I742" s="10"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="str">
         <f aca="false">IF(B743="","",A742+1)</f>
         <v/>
       </c>
-      <c r="I743" s="9"/>
+      <c r="I743" s="10"/>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="str">
         <f aca="false">IF(B744="","",A743+1)</f>
         <v/>
       </c>
-      <c r="I744" s="9"/>
+      <c r="I744" s="10"/>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="str">
         <f aca="false">IF(B745="","",A744+1)</f>
         <v/>
       </c>
-      <c r="I745" s="9"/>
+      <c r="I745" s="10"/>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="str">
         <f aca="false">IF(B746="","",A745+1)</f>
         <v/>
       </c>
-      <c r="I746" s="9"/>
+      <c r="I746" s="10"/>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="str">
         <f aca="false">IF(B747="","",A746+1)</f>
         <v/>
       </c>
-      <c r="I747" s="9"/>
+      <c r="I747" s="10"/>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="1" t="str">
         <f aca="false">IF(B748="","",A747+1)</f>
         <v/>
       </c>
-      <c r="I748" s="9"/>
+      <c r="I748" s="10"/>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="1" t="str">
         <f aca="false">IF(B749="","",A748+1)</f>
         <v/>
       </c>
-      <c r="I749" s="9"/>
+      <c r="I749" s="10"/>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="1" t="str">
         <f aca="false">IF(B750="","",A749+1)</f>
         <v/>
       </c>
-      <c r="I750" s="9"/>
+      <c r="I750" s="10"/>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="1" t="str">
         <f aca="false">IF(B751="","",A750+1)</f>
         <v/>
       </c>
-      <c r="I751" s="9"/>
+      <c r="I751" s="10"/>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="1" t="str">
         <f aca="false">IF(B752="","",A751+1)</f>
         <v/>
       </c>
-      <c r="I752" s="9"/>
+      <c r="I752" s="10"/>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="1" t="str">
         <f aca="false">IF(B753="","",A752+1)</f>
         <v/>
       </c>
-      <c r="I753" s="9"/>
+      <c r="I753" s="10"/>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="str">
         <f aca="false">IF(B754="","",A753+1)</f>
         <v/>
       </c>
-      <c r="I754" s="9"/>
+      <c r="I754" s="10"/>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="str">
         <f aca="false">IF(B755="","",A754+1)</f>
         <v/>
       </c>
-      <c r="I755" s="9"/>
+      <c r="I755" s="10"/>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="str">
         <f aca="false">IF(B756="","",A755+1)</f>
         <v/>
       </c>
-      <c r="I756" s="9"/>
+      <c r="I756" s="10"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="1" t="str">
         <f aca="false">IF(B757="","",A756+1)</f>
         <v/>
       </c>
-      <c r="I757" s="9"/>
+      <c r="I757" s="10"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="str">
         <f aca="false">IF(B758="","",A757+1)</f>
         <v/>
       </c>
-      <c r="I758" s="9"/>
+      <c r="I758" s="10"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="str">
         <f aca="false">IF(B759="","",A758+1)</f>
         <v/>
       </c>
-      <c r="I759" s="9"/>
+      <c r="I759" s="10"/>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="str">
         <f aca="false">IF(B760="","",A759+1)</f>
         <v/>
       </c>
-      <c r="I760" s="9"/>
+      <c r="I760" s="10"/>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="1" t="str">
         <f aca="false">IF(B761="","",A760+1)</f>
         <v/>
       </c>
-      <c r="I761" s="9"/>
+      <c r="I761" s="10"/>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="1" t="str">
         <f aca="false">IF(B762="","",A761+1)</f>
         <v/>
       </c>
-      <c r="I762" s="9"/>
+      <c r="I762" s="10"/>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="1" t="str">
         <f aca="false">IF(B763="","",A762+1)</f>
         <v/>
       </c>
-      <c r="I763" s="9"/>
+      <c r="I763" s="10"/>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="1" t="str">
         <f aca="false">IF(B764="","",A763+1)</f>
         <v/>
       </c>
-      <c r="I764" s="9"/>
+      <c r="I764" s="10"/>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="1" t="str">
         <f aca="false">IF(B765="","",A764+1)</f>
         <v/>
       </c>
-      <c r="I765" s="9"/>
+      <c r="I765" s="10"/>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="1" t="str">
         <f aca="false">IF(B766="","",A765+1)</f>
         <v/>
       </c>
-      <c r="I766" s="9"/>
+      <c r="I766" s="10"/>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="1" t="str">
         <f aca="false">IF(B767="","",A766+1)</f>
         <v/>
       </c>
-      <c r="I767" s="9"/>
+      <c r="I767" s="10"/>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="1" t="str">
         <f aca="false">IF(B768="","",A767+1)</f>
         <v/>
       </c>
-      <c r="I768" s="9"/>
+      <c r="I768" s="10"/>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="str">
         <f aca="false">IF(B769="","",A768+1)</f>
         <v/>
       </c>
-      <c r="I769" s="9"/>
+      <c r="I769" s="10"/>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="str">
         <f aca="false">IF(B770="","",A769+1)</f>
         <v/>
       </c>
-      <c r="I770" s="9"/>
+      <c r="I770" s="10"/>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="1" t="str">
         <f aca="false">IF(B771="","",A770+1)</f>
         <v/>
       </c>
-      <c r="I771" s="9"/>
+      <c r="I771" s="10"/>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="1" t="str">
         <f aca="false">IF(B772="","",A771+1)</f>
         <v/>
       </c>
-      <c r="I772" s="9"/>
+      <c r="I772" s="10"/>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="1" t="str">
         <f aca="false">IF(B773="","",A772+1)</f>
         <v/>
       </c>
-      <c r="I773" s="9"/>
+      <c r="I773" s="10"/>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="str">
         <f aca="false">IF(B774="","",A773+1)</f>
         <v/>
       </c>
-      <c r="I774" s="9"/>
+      <c r="I774" s="10"/>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="str">
         <f aca="false">IF(B775="","",A774+1)</f>
         <v/>
       </c>
-      <c r="I775" s="9"/>
+      <c r="I775" s="10"/>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1" t="str">
         <f aca="false">IF(B776="","",A775+1)</f>
         <v/>
       </c>
-      <c r="I776" s="9"/>
+      <c r="I776" s="10"/>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1" t="str">
         <f aca="false">IF(B777="","",A776+1)</f>
         <v/>
       </c>
-      <c r="I777" s="9"/>
+      <c r="I777" s="10"/>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="1" t="str">
         <f aca="false">IF(B778="","",A777+1)</f>
         <v/>
       </c>
-      <c r="I778" s="9"/>
+      <c r="I778" s="10"/>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="1" t="str">
         <f aca="false">IF(B779="","",A778+1)</f>
         <v/>
       </c>
-      <c r="I779" s="9"/>
+      <c r="I779" s="10"/>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="1" t="str">
         <f aca="false">IF(B780="","",A779+1)</f>
         <v/>
       </c>
-      <c r="I780" s="9"/>
+      <c r="I780" s="10"/>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="1" t="str">
         <f aca="false">IF(B781="","",A780+1)</f>
         <v/>
       </c>
-      <c r="I781" s="9"/>
+      <c r="I781" s="10"/>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="1" t="str">
         <f aca="false">IF(B782="","",A781+1)</f>
         <v/>
       </c>
-      <c r="I782" s="9"/>
+      <c r="I782" s="10"/>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="1" t="str">
         <f aca="false">IF(B783="","",A782+1)</f>
         <v/>
       </c>
-      <c r="I783" s="9"/>
+      <c r="I783" s="10"/>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="1" t="str">
         <f aca="false">IF(B784="","",A783+1)</f>
         <v/>
       </c>
-      <c r="I784" s="9"/>
+      <c r="I784" s="10"/>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="1" t="str">
         <f aca="false">IF(B785="","",A784+1)</f>
         <v/>
       </c>
-      <c r="I785" s="9"/>
+      <c r="I785" s="10"/>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="1" t="str">
         <f aca="false">IF(B786="","",A785+1)</f>
         <v/>
       </c>
-      <c r="I786" s="9"/>
+      <c r="I786" s="10"/>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="1" t="str">
         <f aca="false">IF(B787="","",A786+1)</f>
         <v/>
       </c>
-      <c r="I787" s="9"/>
+      <c r="I787" s="10"/>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="1" t="str">
         <f aca="false">IF(B788="","",A787+1)</f>
         <v/>
       </c>
-      <c r="I788" s="9"/>
+      <c r="I788" s="10"/>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="1" t="str">
         <f aca="false">IF(B789="","",A788+1)</f>
         <v/>
       </c>
-      <c r="I789" s="9"/>
+      <c r="I789" s="10"/>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="1" t="str">
         <f aca="false">IF(B790="","",A789+1)</f>
         <v/>
       </c>
-      <c r="I790" s="9"/>
+      <c r="I790" s="10"/>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="1" t="str">
         <f aca="false">IF(B791="","",A790+1)</f>
         <v/>
       </c>
-      <c r="I791" s="9"/>
+      <c r="I791" s="10"/>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="1" t="str">
         <f aca="false">IF(B792="","",A791+1)</f>
         <v/>
       </c>
-      <c r="I792" s="9"/>
+      <c r="I792" s="10"/>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="1" t="str">
         <f aca="false">IF(B793="","",A792+1)</f>
         <v/>
       </c>
-      <c r="I793" s="9"/>
+      <c r="I793" s="10"/>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="1" t="str">
         <f aca="false">IF(B794="","",A793+1)</f>
         <v/>
       </c>
-      <c r="I794" s="9"/>
+      <c r="I794" s="10"/>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="1" t="str">
         <f aca="false">IF(B795="","",A794+1)</f>
         <v/>
       </c>
-      <c r="I795" s="9"/>
+      <c r="I795" s="10"/>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="1" t="str">
         <f aca="false">IF(B796="","",A795+1)</f>
         <v/>
       </c>
-      <c r="I796" s="9"/>
+      <c r="I796" s="10"/>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="1" t="str">
         <f aca="false">IF(B797="","",A796+1)</f>
         <v/>
       </c>
-      <c r="I797" s="9"/>
+      <c r="I797" s="10"/>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="1" t="str">
         <f aca="false">IF(B798="","",A797+1)</f>
         <v/>
       </c>
-      <c r="I798" s="9"/>
+      <c r="I798" s="10"/>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="1" t="str">
         <f aca="false">IF(B799="","",A798+1)</f>
         <v/>
       </c>
-      <c r="I799" s="9"/>
+      <c r="I799" s="10"/>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="1" t="str">
         <f aca="false">IF(B800="","",A799+1)</f>
         <v/>
       </c>
-      <c r="I800" s="9"/>
+      <c r="I800" s="10"/>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="1" t="str">
         <f aca="false">IF(B801="","",A800+1)</f>
         <v/>
       </c>
-      <c r="I801" s="9"/>
+      <c r="I801" s="10"/>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="1" t="str">
         <f aca="false">IF(B802="","",A801+1)</f>
         <v/>
       </c>
-      <c r="I802" s="9"/>
+      <c r="I802" s="10"/>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="1" t="str">
         <f aca="false">IF(B803="","",A802+1)</f>
         <v/>
       </c>
-      <c r="I803" s="9"/>
+      <c r="I803" s="10"/>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="1" t="str">
         <f aca="false">IF(B804="","",A803+1)</f>
         <v/>
       </c>
-      <c r="I804" s="9"/>
+      <c r="I804" s="10"/>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="1" t="str">
         <f aca="false">IF(B805="","",A804+1)</f>
         <v/>
       </c>
-      <c r="I805" s="9"/>
+      <c r="I805" s="10"/>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="1" t="str">
         <f aca="false">IF(B806="","",A805+1)</f>
         <v/>
       </c>
-      <c r="I806" s="9"/>
+      <c r="I806" s="10"/>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="1" t="str">
         <f aca="false">IF(B807="","",A806+1)</f>
         <v/>
       </c>
-      <c r="I807" s="9"/>
+      <c r="I807" s="10"/>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="1" t="str">
         <f aca="false">IF(B808="","",A807+1)</f>
         <v/>
       </c>
-      <c r="I808" s="9"/>
+      <c r="I808" s="10"/>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="1" t="str">
         <f aca="false">IF(B809="","",A808+1)</f>
         <v/>
       </c>
-      <c r="I809" s="9"/>
+      <c r="I809" s="10"/>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="1" t="str">
         <f aca="false">IF(B810="","",A809+1)</f>
         <v/>
       </c>
-      <c r="I810" s="9"/>
+      <c r="I810" s="10"/>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="1" t="str">
         <f aca="false">IF(B811="","",A810+1)</f>
         <v/>
       </c>
-      <c r="I811" s="9"/>
+      <c r="I811" s="10"/>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="1" t="str">
         <f aca="false">IF(B812="","",A811+1)</f>
         <v/>
       </c>
-      <c r="I812" s="9"/>
+      <c r="I812" s="10"/>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="1" t="str">
         <f aca="false">IF(B813="","",A812+1)</f>
         <v/>
       </c>
-      <c r="I813" s="9"/>
+      <c r="I813" s="10"/>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="1" t="str">
         <f aca="false">IF(B814="","",A813+1)</f>
         <v/>
       </c>
-      <c r="I814" s="9"/>
+      <c r="I814" s="10"/>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="1" t="str">
         <f aca="false">IF(B815="","",A814+1)</f>
         <v/>
       </c>
-      <c r="I815" s="9"/>
+      <c r="I815" s="10"/>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="1" t="str">
         <f aca="false">IF(B816="","",A815+1)</f>
         <v/>
       </c>
-      <c r="I816" s="9"/>
+      <c r="I816" s="10"/>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="1" t="str">
         <f aca="false">IF(B817="","",A816+1)</f>
         <v/>
       </c>
-      <c r="I817" s="9"/>
+      <c r="I817" s="10"/>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="1" t="str">
         <f aca="false">IF(B818="","",A817+1)</f>
         <v/>
       </c>
-      <c r="I818" s="9"/>
+      <c r="I818" s="10"/>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="1" t="str">
         <f aca="false">IF(B819="","",A818+1)</f>
         <v/>
       </c>
-      <c r="I819" s="9"/>
+      <c r="I819" s="10"/>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="1" t="str">
         <f aca="false">IF(B820="","",A819+1)</f>
         <v/>
       </c>
-      <c r="I820" s="9"/>
+      <c r="I820" s="10"/>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="str">
         <f aca="false">IF(B821="","",A820+1)</f>
         <v/>
       </c>
-      <c r="I821" s="9"/>
+      <c r="I821" s="10"/>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="str">
         <f aca="false">IF(B822="","",A821+1)</f>
         <v/>
       </c>
-      <c r="I822" s="9"/>
+      <c r="I822" s="10"/>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="str">
         <f aca="false">IF(B823="","",A822+1)</f>
         <v/>
       </c>
-      <c r="I823" s="9"/>
+      <c r="I823" s="10"/>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="str">
         <f aca="false">IF(B824="","",A823+1)</f>
         <v/>
       </c>
-      <c r="I824" s="9"/>
+      <c r="I824" s="10"/>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="1" t="str">
         <f aca="false">IF(B825="","",A824+1)</f>
         <v/>
       </c>
-      <c r="I825" s="9"/>
+      <c r="I825" s="10"/>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="str">
         <f aca="false">IF(B826="","",A825+1)</f>
         <v/>
       </c>
-      <c r="I826" s="9"/>
+      <c r="I826" s="10"/>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="str">
         <f aca="false">IF(B827="","",A826+1)</f>
         <v/>
       </c>
-      <c r="I827" s="9"/>
+      <c r="I827" s="10"/>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="1" t="str">
         <f aca="false">IF(B828="","",A827+1)</f>
         <v/>
       </c>
-      <c r="I828" s="9"/>
+      <c r="I828" s="10"/>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="1" t="str">
         <f aca="false">IF(B829="","",A828+1)</f>
         <v/>
       </c>
-      <c r="I829" s="9"/>
+      <c r="I829" s="10"/>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="1" t="str">
         <f aca="false">IF(B830="","",A829+1)</f>
         <v/>
       </c>
-      <c r="I830" s="9"/>
+      <c r="I830" s="10"/>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="1" t="str">
         <f aca="false">IF(B831="","",A830+1)</f>
         <v/>
       </c>
-      <c r="I831" s="9"/>
+      <c r="I831" s="10"/>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="1" t="str">
         <f aca="false">IF(B832="","",A831+1)</f>
         <v/>
       </c>
-      <c r="I832" s="9"/>
+      <c r="I832" s="10"/>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="1" t="str">
         <f aca="false">IF(B833="","",A832+1)</f>
         <v/>
       </c>
-      <c r="I833" s="9"/>
+      <c r="I833" s="10"/>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="1" t="str">
         <f aca="false">IF(B834="","",A833+1)</f>
         <v/>
       </c>
-      <c r="I834" s="9"/>
+      <c r="I834" s="10"/>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="1" t="str">
         <f aca="false">IF(B835="","",A834+1)</f>
         <v/>
       </c>
-      <c r="I835" s="9"/>
+      <c r="I835" s="10"/>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="1" t="str">
         <f aca="false">IF(B836="","",A835+1)</f>
         <v/>
       </c>
-      <c r="I836" s="9"/>
+      <c r="I836" s="10"/>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="1" t="str">
         <f aca="false">IF(B837="","",A836+1)</f>
         <v/>
       </c>
-      <c r="I837" s="9"/>
+      <c r="I837" s="10"/>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="1" t="str">
         <f aca="false">IF(B838="","",A837+1)</f>
         <v/>
       </c>
-      <c r="I838" s="9"/>
+      <c r="I838" s="10"/>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="str">
         <f aca="false">IF(B839="","",A838+1)</f>
         <v/>
       </c>
-      <c r="I839" s="9"/>
+      <c r="I839" s="10"/>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="1" t="str">
         <f aca="false">IF(B840="","",A839+1)</f>
         <v/>
       </c>
-      <c r="I840" s="9"/>
+      <c r="I840" s="10"/>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="1" t="str">
         <f aca="false">IF(B841="","",A840+1)</f>
         <v/>
       </c>
-      <c r="I841" s="9"/>
+      <c r="I841" s="10"/>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="1" t="str">
         <f aca="false">IF(B842="","",A841+1)</f>
         <v/>
       </c>
-      <c r="I842" s="9"/>
+      <c r="I842" s="10"/>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="1" t="str">
         <f aca="false">IF(B843="","",A842+1)</f>
         <v/>
       </c>
-      <c r="I843" s="9"/>
+      <c r="I843" s="10"/>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="1" t="str">
         <f aca="false">IF(B844="","",A843+1)</f>
         <v/>
       </c>
-      <c r="I844" s="9"/>
+      <c r="I844" s="10"/>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="str">
         <f aca="false">IF(B845="","",A844+1)</f>
         <v/>
       </c>
-      <c r="I845" s="9"/>
+      <c r="I845" s="10"/>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="1" t="str">
         <f aca="false">IF(B846="","",A845+1)</f>
         <v/>
       </c>
-      <c r="I846" s="9"/>
+      <c r="I846" s="10"/>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="str">
         <f aca="false">IF(B847="","",A846+1)</f>
         <v/>
       </c>
-      <c r="I847" s="9"/>
+      <c r="I847" s="10"/>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="1" t="str">
         <f aca="false">IF(B848="","",A847+1)</f>
         <v/>
       </c>
-      <c r="I848" s="9"/>
+      <c r="I848" s="10"/>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="1" t="str">
         <f aca="false">IF(B849="","",A848+1)</f>
         <v/>
       </c>
-      <c r="I849" s="9"/>
+      <c r="I849" s="10"/>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="1" t="str">
         <f aca="false">IF(B850="","",A849+1)</f>
         <v/>
       </c>
-      <c r="I850" s="9"/>
+      <c r="I850" s="10"/>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="1" t="str">
         <f aca="false">IF(B851="","",A850+1)</f>
         <v/>
       </c>
-      <c r="I851" s="9"/>
+      <c r="I851" s="10"/>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="1" t="str">
         <f aca="false">IF(B852="","",A851+1)</f>
         <v/>
       </c>
-      <c r="I852" s="9"/>
+      <c r="I852" s="10"/>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="1" t="str">
         <f aca="false">IF(B853="","",A852+1)</f>
         <v/>
       </c>
-      <c r="I853" s="9"/>
+      <c r="I853" s="10"/>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="1" t="str">
         <f aca="false">IF(B854="","",A853+1)</f>
         <v/>
       </c>
-      <c r="I854" s="9"/>
+      <c r="I854" s="10"/>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="1" t="str">
         <f aca="false">IF(B855="","",A854+1)</f>
         <v/>
       </c>
-      <c r="I855" s="9"/>
+      <c r="I855" s="10"/>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="1" t="str">
         <f aca="false">IF(B856="","",A855+1)</f>
         <v/>
       </c>
-      <c r="I856" s="9"/>
+      <c r="I856" s="10"/>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="1" t="str">
         <f aca="false">IF(B857="","",A856+1)</f>
         <v/>
       </c>
-      <c r="I857" s="9"/>
+      <c r="I857" s="10"/>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="1" t="str">
         <f aca="false">IF(B858="","",A857+1)</f>
         <v/>
       </c>
-      <c r="I858" s="9"/>
+      <c r="I858" s="10"/>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="str">
         <f aca="false">IF(B859="","",A858+1)</f>
         <v/>
       </c>
-      <c r="I859" s="9"/>
+      <c r="I859" s="10"/>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="1" t="str">
         <f aca="false">IF(B860="","",A859+1)</f>
         <v/>
       </c>
-      <c r="I860" s="9"/>
+      <c r="I860" s="10"/>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="1" t="str">
         <f aca="false">IF(B861="","",A860+1)</f>
         <v/>
       </c>
-      <c r="I861" s="9"/>
+      <c r="I861" s="10"/>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="1" t="str">
         <f aca="false">IF(B862="","",A861+1)</f>
         <v/>
       </c>
-      <c r="I862" s="9"/>
+      <c r="I862" s="10"/>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="1" t="str">
         <f aca="false">IF(B863="","",A862+1)</f>
         <v/>
       </c>
-      <c r="I863" s="9"/>
+      <c r="I863" s="10"/>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="1" t="str">
         <f aca="false">IF(B864="","",A863+1)</f>
         <v/>
       </c>
-      <c r="I864" s="9"/>
+      <c r="I864" s="10"/>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="1" t="str">
         <f aca="false">IF(B865="","",A864+1)</f>
         <v/>
       </c>
-      <c r="I865" s="9"/>
+      <c r="I865" s="10"/>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="1" t="str">
         <f aca="false">IF(B866="","",A865+1)</f>
         <v/>
       </c>
-      <c r="I866" s="9"/>
+      <c r="I866" s="10"/>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="str">
         <f aca="false">IF(B867="","",A866+1)</f>
         <v/>
       </c>
-      <c r="I867" s="9"/>
+      <c r="I867" s="10"/>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="1" t="str">
         <f aca="false">IF(B868="","",A867+1)</f>
         <v/>
       </c>
-      <c r="I868" s="9"/>
+      <c r="I868" s="10"/>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="1" t="str">
         <f aca="false">IF(B869="","",A868+1)</f>
         <v/>
       </c>
-      <c r="I869" s="9"/>
+      <c r="I869" s="10"/>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="1" t="str">
         <f aca="false">IF(B870="","",A869+1)</f>
         <v/>
       </c>
-      <c r="I870" s="9"/>
+      <c r="I870" s="10"/>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="1" t="str">
         <f aca="false">IF(B871="","",A870+1)</f>
         <v/>
       </c>
-      <c r="I871" s="9"/>
+      <c r="I871" s="10"/>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="1" t="str">
         <f aca="false">IF(B872="","",A871+1)</f>
         <v/>
       </c>
-      <c r="I872" s="9"/>
+      <c r="I872" s="10"/>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="1" t="str">
         <f aca="false">IF(B873="","",A872+1)</f>
         <v/>
       </c>
-      <c r="I873" s="9"/>
+      <c r="I873" s="10"/>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="1" t="str">
         <f aca="false">IF(B874="","",A873+1)</f>
         <v/>
       </c>
-      <c r="I874" s="9"/>
+      <c r="I874" s="10"/>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="1" t="str">
         <f aca="false">IF(B875="","",A874+1)</f>
         <v/>
       </c>
-      <c r="I875" s="9"/>
+      <c r="I875" s="10"/>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="1" t="str">
         <f aca="false">IF(B876="","",A875+1)</f>
         <v/>
       </c>
-      <c r="I876" s="9"/>
+      <c r="I876" s="10"/>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="1" t="str">
         <f aca="false">IF(B877="","",A876+1)</f>
         <v/>
       </c>
-      <c r="I877" s="9"/>
+      <c r="I877" s="10"/>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="1" t="str">
         <f aca="false">IF(B878="","",A877+1)</f>
         <v/>
       </c>
-      <c r="I878" s="9"/>
+      <c r="I878" s="10"/>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="1" t="str">
         <f aca="false">IF(B879="","",A878+1)</f>
         <v/>
       </c>
-      <c r="I879" s="9"/>
+      <c r="I879" s="10"/>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="1" t="str">
         <f aca="false">IF(B880="","",A879+1)</f>
         <v/>
       </c>
-      <c r="I880" s="9"/>
+      <c r="I880" s="10"/>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="1" t="str">
         <f aca="false">IF(B881="","",A880+1)</f>
         <v/>
       </c>
-      <c r="I881" s="9"/>
+      <c r="I881" s="10"/>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="1" t="str">
         <f aca="false">IF(B882="","",A881+1)</f>
         <v/>
       </c>
-      <c r="I882" s="9"/>
+      <c r="I882" s="10"/>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="1" t="str">
         <f aca="false">IF(B883="","",A882+1)</f>
         <v/>
       </c>
-      <c r="I883" s="9"/>
+      <c r="I883" s="10"/>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="1" t="str">
         <f aca="false">IF(B884="","",A883+1)</f>
         <v/>
       </c>
-      <c r="I884" s="9"/>
+      <c r="I884" s="10"/>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="1" t="str">
         <f aca="false">IF(B885="","",A884+1)</f>
         <v/>
       </c>
-      <c r="I885" s="9"/>
+      <c r="I885" s="10"/>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="1" t="str">
         <f aca="false">IF(B886="","",A885+1)</f>
         <v/>
       </c>
-      <c r="I886" s="9"/>
+      <c r="I886" s="10"/>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="1" t="str">
         <f aca="false">IF(B887="","",A886+1)</f>
         <v/>
       </c>
-      <c r="I887" s="9"/>
+      <c r="I887" s="10"/>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="1" t="str">
         <f aca="false">IF(B888="","",A887+1)</f>
         <v/>
       </c>
-      <c r="I888" s="9"/>
+      <c r="I888" s="10"/>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="1" t="str">
         <f aca="false">IF(B889="","",A888+1)</f>
         <v/>
       </c>
-      <c r="I889" s="9"/>
+      <c r="I889" s="10"/>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="1" t="str">
         <f aca="false">IF(B890="","",A889+1)</f>
         <v/>
       </c>
-      <c r="I890" s="9"/>
+      <c r="I890" s="10"/>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="1" t="str">
         <f aca="false">IF(B891="","",A890+1)</f>
         <v/>
       </c>
-      <c r="I891" s="9"/>
+      <c r="I891" s="10"/>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="str">
         <f aca="false">IF(B892="","",A891+1)</f>
         <v/>
       </c>
-      <c r="I892" s="9"/>
+      <c r="I892" s="10"/>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="1" t="str">
         <f aca="false">IF(B893="","",A892+1)</f>
         <v/>
       </c>
-      <c r="I893" s="9"/>
+      <c r="I893" s="10"/>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="1" t="str">
         <f aca="false">IF(B894="","",A893+1)</f>
         <v/>
       </c>
-      <c r="I894" s="9"/>
+      <c r="I894" s="10"/>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="1" t="str">
         <f aca="false">IF(B895="","",A894+1)</f>
         <v/>
       </c>
-      <c r="I895" s="9"/>
+      <c r="I895" s="10"/>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="str">
         <f aca="false">IF(B896="","",A895+1)</f>
         <v/>
       </c>
-      <c r="I896" s="9"/>
+      <c r="I896" s="10"/>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="str">
         <f aca="false">IF(B897="","",A896+1)</f>
         <v/>
       </c>
-      <c r="I897" s="9"/>
+      <c r="I897" s="10"/>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="1" t="str">
         <f aca="false">IF(B898="","",A897+1)</f>
         <v/>
       </c>
-      <c r="I898" s="9"/>
+      <c r="I898" s="10"/>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="str">
         <f aca="false">IF(B899="","",A898+1)</f>
         <v/>
       </c>
-      <c r="I899" s="9"/>
+      <c r="I899" s="10"/>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="str">
         <f aca="false">IF(B900="","",A899+1)</f>
         <v/>
       </c>
-      <c r="I900" s="9"/>
+      <c r="I900" s="10"/>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="str">
         <f aca="false">IF(B901="","",A900+1)</f>
         <v/>
       </c>
-      <c r="I901" s="9"/>
+      <c r="I901" s="10"/>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="str">
         <f aca="false">IF(B902="","",A901+1)</f>
         <v/>
       </c>
-      <c r="I902" s="9"/>
+      <c r="I902" s="10"/>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="str">
         <f aca="false">IF(B903="","",A902+1)</f>
         <v/>
       </c>
-      <c r="I903" s="9"/>
+      <c r="I903" s="10"/>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="1" t="str">
         <f aca="false">IF(B904="","",A903+1)</f>
         <v/>
       </c>
-      <c r="I904" s="9"/>
+      <c r="I904" s="10"/>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="1" t="str">
         <f aca="false">IF(B905="","",A904+1)</f>
         <v/>
       </c>
-      <c r="I905" s="9"/>
+      <c r="I905" s="10"/>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="1" t="str">
         <f aca="false">IF(B906="","",A905+1)</f>
         <v/>
       </c>
-      <c r="I906" s="9"/>
+      <c r="I906" s="10"/>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="1" t="str">
         <f aca="false">IF(B907="","",A906+1)</f>
         <v/>
       </c>
-      <c r="I907" s="9"/>
+      <c r="I907" s="10"/>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="1" t="str">
         <f aca="false">IF(B908="","",A907+1)</f>
         <v/>
       </c>
-      <c r="I908" s="9"/>
+      <c r="I908" s="10"/>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="1" t="str">
         <f aca="false">IF(B909="","",A908+1)</f>
         <v/>
       </c>
-      <c r="I909" s="9"/>
+      <c r="I909" s="10"/>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="str">
         <f aca="false">IF(B910="","",A909+1)</f>
         <v/>
       </c>
-      <c r="I910" s="9"/>
+      <c r="I910" s="10"/>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1" t="str">
         <f aca="false">IF(B911="","",A910+1)</f>
         <v/>
       </c>
-      <c r="I911" s="9"/>
+      <c r="I911" s="10"/>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="str">
         <f aca="false">IF(B912="","",A911+1)</f>
         <v/>
       </c>
-      <c r="I912" s="9"/>
+      <c r="I912" s="10"/>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="1" t="str">
         <f aca="false">IF(B913="","",A912+1)</f>
         <v/>
       </c>
-      <c r="I913" s="9"/>
+      <c r="I913" s="10"/>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="str">
         <f aca="false">IF(B914="","",A913+1)</f>
         <v/>
       </c>
-      <c r="I914" s="9"/>
+      <c r="I914" s="10"/>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="str">
         <f aca="false">IF(B915="","",A914+1)</f>
         <v/>
       </c>
-      <c r="I915" s="9"/>
+      <c r="I915" s="10"/>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="str">
         <f aca="false">IF(B916="","",A915+1)</f>
         <v/>
       </c>
-      <c r="I916" s="9"/>
+      <c r="I916" s="10"/>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="str">
         <f aca="false">IF(B917="","",A916+1)</f>
         <v/>
       </c>
-      <c r="I917" s="9"/>
+      <c r="I917" s="10"/>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="str">
         <f aca="false">IF(B918="","",A917+1)</f>
         <v/>
       </c>
-      <c r="I918" s="9"/>
+      <c r="I918" s="10"/>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="str">
         <f aca="false">IF(B919="","",A918+1)</f>
         <v/>
       </c>
-      <c r="I919" s="9"/>
+      <c r="I919" s="10"/>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="str">
         <f aca="false">IF(B920="","",A919+1)</f>
         <v/>
       </c>
-      <c r="I920" s="9"/>
+      <c r="I920" s="10"/>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="str">
         <f aca="false">IF(B921="","",A920+1)</f>
         <v/>
       </c>
-      <c r="I921" s="9"/>
+      <c r="I921" s="10"/>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="str">
         <f aca="false">IF(B922="","",A921+1)</f>
         <v/>
       </c>
-      <c r="I922" s="9"/>
+      <c r="I922" s="10"/>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="str">
         <f aca="false">IF(B923="","",A922+1)</f>
         <v/>
       </c>
-      <c r="I923" s="9"/>
+      <c r="I923" s="10"/>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="1" t="str">
         <f aca="false">IF(B924="","",A923+1)</f>
         <v/>
       </c>
-      <c r="I924" s="9"/>
+      <c r="I924" s="10"/>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="str">
         <f aca="false">IF(B925="","",A924+1)</f>
         <v/>
       </c>
-      <c r="I925" s="9"/>
+      <c r="I925" s="10"/>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="1" t="str">
         <f aca="false">IF(B926="","",A925+1)</f>
         <v/>
       </c>
-      <c r="I926" s="9"/>
+      <c r="I926" s="10"/>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="1" t="str">
         <f aca="false">IF(B927="","",A926+1)</f>
         <v/>
       </c>
-      <c r="I927" s="9"/>
+      <c r="I927" s="10"/>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="1" t="str">
         <f aca="false">IF(B928="","",A927+1)</f>
         <v/>
       </c>
-      <c r="I928" s="9"/>
+      <c r="I928" s="10"/>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="1" t="str">
         <f aca="false">IF(B929="","",A928+1)</f>
         <v/>
       </c>
-      <c r="I929" s="9"/>
+      <c r="I929" s="10"/>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="1" t="str">
         <f aca="false">IF(B930="","",A929+1)</f>
         <v/>
       </c>
-      <c r="I930" s="9"/>
+      <c r="I930" s="10"/>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="1" t="str">
         <f aca="false">IF(B931="","",A930+1)</f>
         <v/>
       </c>
-      <c r="I931" s="9"/>
+      <c r="I931" s="10"/>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="1" t="str">
         <f aca="false">IF(B932="","",A931+1)</f>
         <v/>
       </c>
-      <c r="I932" s="9"/>
+      <c r="I932" s="10"/>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="1" t="str">
         <f aca="false">IF(B933="","",A932+1)</f>
         <v/>
       </c>
-      <c r="I933" s="9"/>
+      <c r="I933" s="10"/>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="str">
         <f aca="false">IF(B934="","",A933+1)</f>
         <v/>
       </c>
-      <c r="I934" s="9"/>
+      <c r="I934" s="10"/>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="str">
         <f aca="false">IF(B935="","",A934+1)</f>
         <v/>
       </c>
-      <c r="I935" s="9"/>
+      <c r="I935" s="10"/>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="1" t="str">
         <f aca="false">IF(B936="","",A935+1)</f>
         <v/>
       </c>
-      <c r="I936" s="9"/>
+      <c r="I936" s="10"/>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="1" t="str">
         <f aca="false">IF(B937="","",A936+1)</f>
         <v/>
       </c>
-      <c r="I937" s="9"/>
+      <c r="I937" s="10"/>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="1" t="str">
         <f aca="false">IF(B938="","",A937+1)</f>
         <v/>
       </c>
-      <c r="I938" s="9"/>
+      <c r="I938" s="10"/>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="1" t="str">
         <f aca="false">IF(B939="","",A938+1)</f>
         <v/>
       </c>
-      <c r="I939" s="9"/>
+      <c r="I939" s="10"/>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="1" t="str">
         <f aca="false">IF(B940="","",A939+1)</f>
         <v/>
       </c>
-      <c r="I940" s="9"/>
+      <c r="I940" s="10"/>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1" t="str">
         <f aca="false">IF(B941="","",A940+1)</f>
         <v/>
       </c>
-      <c r="I941" s="9"/>
+      <c r="I941" s="10"/>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="str">
         <f aca="false">IF(B942="","",A941+1)</f>
         <v/>
       </c>
-      <c r="I942" s="9"/>
+      <c r="I942" s="10"/>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="1" t="str">
         <f aca="false">IF(B943="","",A942+1)</f>
         <v/>
       </c>
-      <c r="I943" s="9"/>
+      <c r="I943" s="10"/>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="str">
         <f aca="false">IF(B944="","",A943+1)</f>
         <v/>
       </c>
-      <c r="I944" s="9"/>
+      <c r="I944" s="10"/>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="str">
         <f aca="false">IF(B945="","",A944+1)</f>
         <v/>
       </c>
-      <c r="I945" s="9"/>
+      <c r="I945" s="10"/>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="1" t="str">
         <f aca="false">IF(B946="","",A945+1)</f>
         <v/>
       </c>
-      <c r="I946" s="9"/>
+      <c r="I946" s="10"/>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="1" t="str">
         <f aca="false">IF(B947="","",A946+1)</f>
         <v/>
       </c>
-      <c r="I947" s="9"/>
+      <c r="I947" s="10"/>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="str">
         <f aca="false">IF(B948="","",A947+1)</f>
         <v/>
       </c>
-      <c r="I948" s="9"/>
+      <c r="I948" s="10"/>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="str">
         <f aca="false">IF(B949="","",A948+1)</f>
         <v/>
       </c>
-      <c r="I949" s="9"/>
+      <c r="I949" s="10"/>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="str">
         <f aca="false">IF(B950="","",A949+1)</f>
         <v/>
       </c>
-      <c r="I950" s="9"/>
+      <c r="I950" s="10"/>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="1" t="str">
         <f aca="false">IF(B951="","",A950+1)</f>
         <v/>
       </c>
-      <c r="I951" s="9"/>
+      <c r="I951" s="10"/>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="1" t="str">
         <f aca="false">IF(B952="","",A951+1)</f>
         <v/>
       </c>
-      <c r="I952" s="9"/>
+      <c r="I952" s="10"/>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="str">
         <f aca="false">IF(B953="","",A952+1)</f>
         <v/>
       </c>
-      <c r="I953" s="9"/>
+      <c r="I953" s="10"/>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="str">
         <f aca="false">IF(B954="","",A953+1)</f>
         <v/>
       </c>
-      <c r="I954" s="9"/>
+      <c r="I954" s="10"/>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="str">
         <f aca="false">IF(B955="","",A954+1)</f>
         <v/>
       </c>
-      <c r="I955" s="9"/>
+      <c r="I955" s="10"/>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="str">
         <f aca="false">IF(B956="","",A955+1)</f>
         <v/>
       </c>
-      <c r="I956" s="9"/>
+      <c r="I956" s="10"/>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="str">
         <f aca="false">IF(B957="","",A956+1)</f>
         <v/>
       </c>
-      <c r="I957" s="9"/>
+      <c r="I957" s="10"/>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="str">
         <f aca="false">IF(B958="","",A957+1)</f>
         <v/>
       </c>
-      <c r="I958" s="9"/>
+      <c r="I958" s="10"/>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="str">
         <f aca="false">IF(B959="","",A958+1)</f>
         <v/>
       </c>
-      <c r="I959" s="9"/>
+      <c r="I959" s="10"/>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="1" t="str">
         <f aca="false">IF(B960="","",A959+1)</f>
         <v/>
       </c>
-      <c r="I960" s="9"/>
+      <c r="I960" s="10"/>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="str">
         <f aca="false">IF(B961="","",A960+1)</f>
         <v/>
       </c>
-      <c r="I961" s="9"/>
+      <c r="I961" s="10"/>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="1" t="str">
         <f aca="false">IF(B962="","",A961+1)</f>
         <v/>
       </c>
-      <c r="I962" s="9"/>
+      <c r="I962" s="10"/>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="1" t="str">
         <f aca="false">IF(B963="","",A962+1)</f>
         <v/>
       </c>
-      <c r="I963" s="9"/>
+      <c r="I963" s="10"/>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="1" t="str">
         <f aca="false">IF(B964="","",A963+1)</f>
         <v/>
       </c>
-      <c r="I964" s="9"/>
+      <c r="I964" s="10"/>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="1" t="str">
         <f aca="false">IF(B965="","",A964+1)</f>
         <v/>
       </c>
-      <c r="I965" s="9"/>
+      <c r="I965" s="10"/>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="1" t="str">
         <f aca="false">IF(B966="","",A965+1)</f>
         <v/>
       </c>
-      <c r="I966" s="9"/>
+      <c r="I966" s="10"/>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="str">
         <f aca="false">IF(B967="","",A966+1)</f>
         <v/>
       </c>
-      <c r="I967" s="9"/>
+      <c r="I967" s="10"/>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="1" t="str">
         <f aca="false">IF(B968="","",A967+1)</f>
         <v/>
       </c>
-      <c r="I968" s="9"/>
+      <c r="I968" s="10"/>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="1" t="str">
         <f aca="false">IF(B969="","",A968+1)</f>
         <v/>
       </c>
-      <c r="I969" s="9"/>
+      <c r="I969" s="10"/>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1" t="str">
         <f aca="false">IF(B970="","",A969+1)</f>
         <v/>
       </c>
-      <c r="I970" s="9"/>
+      <c r="I970" s="10"/>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="1" t="str">
         <f aca="false">IF(B971="","",A970+1)</f>
         <v/>
       </c>
-      <c r="I971" s="9"/>
+      <c r="I971" s="10"/>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="1" t="str">
         <f aca="false">IF(B972="","",A971+1)</f>
         <v/>
       </c>
-      <c r="I972" s="9"/>
+      <c r="I972" s="10"/>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="1" t="str">
         <f aca="false">IF(B973="","",A972+1)</f>
         <v/>
       </c>
-      <c r="I973" s="9"/>
+      <c r="I973" s="10"/>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="1" t="str">
         <f aca="false">IF(B974="","",A973+1)</f>
         <v/>
       </c>
-      <c r="I974" s="9"/>
+      <c r="I974" s="10"/>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="1" t="str">
         <f aca="false">IF(B975="","",A974+1)</f>
         <v/>
       </c>
-      <c r="I975" s="9"/>
+      <c r="I975" s="10"/>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="1" t="str">
         <f aca="false">IF(B976="","",A975+1)</f>
         <v/>
       </c>
-      <c r="I976" s="9"/>
+      <c r="I976" s="10"/>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="1" t="str">
         <f aca="false">IF(B977="","",A976+1)</f>
         <v/>
       </c>
-      <c r="I977" s="9"/>
+      <c r="I977" s="10"/>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="1" t="str">
         <f aca="false">IF(B978="","",A977+1)</f>
         <v/>
       </c>
-      <c r="I978" s="9"/>
+      <c r="I978" s="10"/>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="1" t="str">
         <f aca="false">IF(B979="","",A978+1)</f>
         <v/>
       </c>
-      <c r="I979" s="9"/>
+      <c r="I979" s="10"/>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="str">
         <f aca="false">IF(B980="","",A979+1)</f>
         <v/>
       </c>
-      <c r="I980" s="9"/>
+      <c r="I980" s="10"/>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="str">
         <f aca="false">IF(B981="","",A980+1)</f>
         <v/>
       </c>
-      <c r="I981" s="9"/>
+      <c r="I981" s="10"/>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="str">
         <f aca="false">IF(B982="","",A981+1)</f>
         <v/>
       </c>
-      <c r="I982" s="9"/>
+      <c r="I982" s="10"/>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="1" t="str">
         <f aca="false">IF(B983="","",A982+1)</f>
         <v/>
       </c>
-      <c r="I983" s="9"/>
+      <c r="I983" s="10"/>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="str">
         <f aca="false">IF(B984="","",A983+1)</f>
         <v/>
       </c>
-      <c r="I984" s="9"/>
+      <c r="I984" s="10"/>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="str">
         <f aca="false">IF(B985="","",A984+1)</f>
         <v/>
       </c>
-      <c r="I985" s="9"/>
+      <c r="I985" s="10"/>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="str">
         <f aca="false">IF(B986="","",A985+1)</f>
         <v/>
       </c>
-      <c r="I986" s="9"/>
+      <c r="I986" s="10"/>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="str">
         <f aca="false">IF(B987="","",A986+1)</f>
         <v/>
       </c>
-      <c r="I987" s="9"/>
+      <c r="I987" s="10"/>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="str">
         <f aca="false">IF(B988="","",A987+1)</f>
         <v/>
       </c>
-      <c r="I988" s="9"/>
+      <c r="I988" s="10"/>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="str">
         <f aca="false">IF(B989="","",A988+1)</f>
         <v/>
       </c>
-      <c r="I989" s="9"/>
+      <c r="I989" s="10"/>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="str">
         <f aca="false">IF(B990="","",A989+1)</f>
         <v/>
       </c>
-      <c r="I990" s="9"/>
+      <c r="I990" s="10"/>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="str">
         <f aca="false">IF(B991="","",A990+1)</f>
         <v/>
       </c>
-      <c r="I991" s="9"/>
+      <c r="I991" s="10"/>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="str">
         <f aca="false">IF(B992="","",A991+1)</f>
         <v/>
       </c>
-      <c r="I992" s="9"/>
+      <c r="I992" s="10"/>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="str">
         <f aca="false">IF(B993="","",A992+1)</f>
         <v/>
       </c>
-      <c r="I993" s="9"/>
+      <c r="I993" s="10"/>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="1" t="str">
         <f aca="false">IF(B994="","",A993+1)</f>
         <v/>
       </c>
-      <c r="I994" s="9"/>
+      <c r="I994" s="10"/>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="1" t="str">
         <f aca="false">IF(B995="","",A994+1)</f>
         <v/>
       </c>
-      <c r="I995" s="9"/>
+      <c r="I995" s="10"/>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="1" t="str">
         <f aca="false">IF(B996="","",A995+1)</f>
         <v/>
       </c>
-      <c r="I996" s="9"/>
+      <c r="I996" s="10"/>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="1" t="str">
         <f aca="false">IF(B997="","",A996+1)</f>
         <v/>
       </c>
-      <c r="I997" s="9"/>
+      <c r="I997" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="2">
